--- a/realestate/documents/RipartizioneSpeseImmobiliari.xlsx
+++ b/realestate/documents/RipartizioneSpeseImmobiliari.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bananach-my.sharepoint.com/personal/patrick_pasquillo_banana_ch/Documents/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\patrick.pasquillo\Documents\GitHub\Universal\realestate\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="117" documentId="8_{EB4C9B1F-70B0-486D-9782-699C190AD19E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{84F43644-0BCB-458E-A121-E4B0A1642545}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72333AEB-FEF6-4EB7-81DB-32FC245CD99A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C8DA3664-E04A-4EE4-B0E8-18F2F24E5315}"/>
   </bookViews>
@@ -106,7 +106,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="170" formatCode="_-* #,##0.00\ [$€-410]_-;\-* #,##0.00\ [$€-410]_-;_-* &quot;-&quot;??\ [$€-410]_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ [$€-410]_-;\-* #,##0.00\ [$€-410]_-;_-* &quot;-&quot;??\ [$€-410]_-;_-@_-"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -179,23 +179,28 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="170" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="170" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -203,14 +208,30 @@
   <dxfs count="11">
     <dxf>
       <font>
-        <b/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="none"/>
       </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="170" formatCode="_-* #,##0.00\ [$€-410]_-;\-* #,##0.00\ [$€-410]_-;_-* &quot;-&quot;??\ [$€-410]_-;_-@_-"/>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.00\ [$€-410]_-;\-* #,##0.00\ [$€-410]_-;_-* &quot;-&quot;??\ [$€-410]_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="170" formatCode="_-* #,##0.00\ [$€-410]_-;\-* #,##0.00\ [$€-410]_-;_-* &quot;-&quot;??\ [$€-410]_-;_-@_-"/>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.00\ [$€-410]_-;\-* #,##0.00\ [$€-410]_-;_-* &quot;-&quot;??\ [$€-410]_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -229,7 +250,8 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="170" formatCode="_-* #,##0.00\ [$€-410]_-;\-* #,##0.00\ [$€-410]_-;_-* &quot;-&quot;??\ [$€-410]_-;_-@_-"/>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.00\ [$€-410]_-;\-* #,##0.00\ [$€-410]_-;_-* &quot;-&quot;??\ [$€-410]_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -248,6 +270,7 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -266,6 +289,7 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -284,6 +308,7 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -302,6 +327,7 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -320,6 +346,7 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -338,26 +365,12 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="none"/>
+        <b/>
       </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -373,14 +386,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7EDFFC5C-15BA-41C1-A573-16895C48713E}" name="Tabella1" displayName="Tabella1" ref="A1:I13" totalsRowShown="0" headerRowDxfId="0" dataDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7EDFFC5C-15BA-41C1-A573-16895C48713E}" name="Tabella1" displayName="Tabella1" ref="A1:I13" totalsRowShown="0" headerRowDxfId="10" dataDxfId="0">
   <autoFilter ref="A1:I13" xr:uid="{7EDFFC5C-15BA-41C1-A573-16895C48713E}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{2C273954-DE9B-4C1A-906F-88F1A8DE2F4E}" name="Spesa da ripartire" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{BDDF30DA-1A34-4AFE-8AC9-C4A5002891E6}" name="Saldo" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{F2EE9F63-F9A7-447D-B00D-397FB9B08280}" name="Coeff. app. 1" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{BA9C90F3-DDBF-49C0-B18F-A27C3F3C3441}" name="Coeff. app. 2" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{3B6004CA-EF77-449F-BDFC-540637EA9ACF}" name="Coeff. app. 3" dataDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{2C273954-DE9B-4C1A-906F-88F1A8DE2F4E}" name="Spesa da ripartire" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{BDDF30DA-1A34-4AFE-8AC9-C4A5002891E6}" name="Saldo" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{F2EE9F63-F9A7-447D-B00D-397FB9B08280}" name="Coeff. app. 1" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{BA9C90F3-DDBF-49C0-B18F-A27C3F3C3441}" name="Coeff. app. 2" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{3B6004CA-EF77-449F-BDFC-540637EA9ACF}" name="Coeff. app. 3" dataDxfId="5"/>
     <tableColumn id="9" xr3:uid="{79589C4D-015B-4F0F-8BD0-7FD3B7996590}" name="Tot. Coeff." dataDxfId="4"/>
     <tableColumn id="6" xr3:uid="{CE2FA730-DC58-45E1-9E24-8CCE45FCA81E}" name="App. 1" dataDxfId="3"/>
     <tableColumn id="7" xr3:uid="{1D501B41-CE35-4E48-95E4-C930E890E131}" name="App. 2" dataDxfId="2"/>
@@ -723,371 +736,376 @@
     <col min="9" max="9" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="4">
         <v>4000</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="5">
         <v>54</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="5">
         <v>85</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="5">
         <v>124</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="5">
         <f>$C2+$D2+$E2</f>
         <v>263</v>
       </c>
-      <c r="G2" s="5">
+      <c r="G2" s="6">
         <f>$B2/$F2*$C2</f>
         <v>821.29277566539929</v>
       </c>
-      <c r="H2" s="5">
+      <c r="H2" s="6">
         <f>$B2/$F2*$D2</f>
         <v>1292.7756653992396</v>
       </c>
-      <c r="I2" s="5">
+      <c r="I2" s="6">
         <f>$B2/$F2*$E2</f>
         <v>1885.9315589353612</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="4">
         <v>2000</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="5">
         <v>54</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="5">
         <v>85</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="5">
         <v>124</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="5">
         <f t="shared" ref="F3:F11" si="0">$C3+$D3+$E3</f>
         <v>263</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G3" s="6">
         <f t="shared" ref="G3:G11" si="1">$B3/$F3*$C3</f>
         <v>410.64638783269965</v>
       </c>
-      <c r="H3" s="5">
+      <c r="H3" s="6">
         <f t="shared" ref="H3:H11" si="2">$B3/$F3*$D3</f>
         <v>646.38783269961982</v>
       </c>
-      <c r="I3" s="5">
+      <c r="I3" s="6">
         <f t="shared" ref="I3:I11" si="3">$B3/$F3*$E3</f>
         <v>942.96577946768059</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="4">
         <v>200</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="5">
         <v>54</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="5">
         <v>85</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="5">
         <v>124</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="5">
         <f t="shared" si="0"/>
         <v>263</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" s="6">
         <f t="shared" si="1"/>
         <v>41.064638783269956</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H4" s="6">
         <f t="shared" si="2"/>
         <v>64.638783269961976</v>
       </c>
-      <c r="I4" s="5">
+      <c r="I4" s="6">
         <f t="shared" si="3"/>
         <v>94.296577946768053</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="4">
         <v>50</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="5">
         <v>54</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="5">
         <v>85</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="5">
         <v>124</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="5">
         <f t="shared" si="0"/>
         <v>263</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="6">
         <f t="shared" si="1"/>
         <v>10.266159695817489</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H5" s="6">
         <f t="shared" si="2"/>
         <v>16.159695817490494</v>
       </c>
-      <c r="I5" s="5">
+      <c r="I5" s="6">
         <f t="shared" si="3"/>
         <v>23.574144486692013</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="4">
         <v>800</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="5">
         <v>54</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="5">
         <v>85</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="5">
         <v>124</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="5">
         <f t="shared" si="0"/>
         <v>263</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="6">
         <f t="shared" si="1"/>
         <v>164.25855513307982</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6" s="6">
         <f t="shared" si="2"/>
         <v>258.55513307984791</v>
       </c>
-      <c r="I6" s="5">
+      <c r="I6" s="6">
         <f t="shared" si="3"/>
         <v>377.18631178707221</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="4">
         <v>300</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="5">
         <v>54</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="5">
         <v>85</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="5">
         <v>124</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="5">
         <f t="shared" si="0"/>
         <v>263</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7" s="6">
         <f t="shared" si="1"/>
         <v>61.596958174904941</v>
       </c>
-      <c r="H7" s="5">
+      <c r="H7" s="6">
         <f t="shared" si="2"/>
         <v>96.958174904942965</v>
       </c>
-      <c r="I7" s="5">
+      <c r="I7" s="6">
         <f t="shared" si="3"/>
         <v>141.44486692015209</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="4">
         <v>400</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="5">
         <v>54</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="5">
         <v>85</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="5">
         <v>124</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" s="5">
         <f t="shared" si="0"/>
         <v>263</v>
       </c>
-      <c r="G8" s="5">
+      <c r="G8" s="6">
         <f t="shared" si="1"/>
         <v>82.129277566539912</v>
       </c>
-      <c r="H8" s="5">
+      <c r="H8" s="6">
         <f t="shared" si="2"/>
         <v>129.27756653992395</v>
       </c>
-      <c r="I8" s="5">
+      <c r="I8" s="6">
         <f t="shared" si="3"/>
         <v>188.59315589353611</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="4">
         <v>500</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="5">
         <v>54</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="5">
         <v>85</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="5">
         <v>124</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9" s="5">
         <f t="shared" si="0"/>
         <v>263</v>
       </c>
-      <c r="G9" s="5">
+      <c r="G9" s="6">
         <f t="shared" si="1"/>
         <v>102.66159695817491</v>
       </c>
-      <c r="H9" s="5">
+      <c r="H9" s="6">
         <f t="shared" si="2"/>
         <v>161.59695817490496</v>
       </c>
-      <c r="I9" s="5">
+      <c r="I9" s="6">
         <f t="shared" si="3"/>
         <v>235.74144486692015</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="4">
         <v>100</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="5">
         <v>54</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="5">
         <v>85</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="5">
         <v>124</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10" s="5">
         <f t="shared" si="0"/>
         <v>263</v>
       </c>
-      <c r="G10" s="5">
+      <c r="G10" s="6">
         <f t="shared" si="1"/>
         <v>20.532319391634978</v>
       </c>
-      <c r="H10" s="5">
+      <c r="H10" s="6">
         <f t="shared" si="2"/>
         <v>32.319391634980988</v>
       </c>
-      <c r="I10" s="5">
+      <c r="I10" s="6">
         <f t="shared" si="3"/>
         <v>47.148288973384027</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="4">
         <v>1250</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="5">
         <v>1</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="5">
         <v>1</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="5">
         <v>1</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="G11" s="5">
+      <c r="G11" s="6">
         <f t="shared" si="1"/>
         <v>416.66666666666669</v>
       </c>
-      <c r="H11" s="5">
+      <c r="H11" s="6">
         <f t="shared" si="2"/>
         <v>416.66666666666669</v>
       </c>
-      <c r="I11" s="5">
+      <c r="I11" s="6">
         <f t="shared" si="3"/>
         <v>416.66666666666669</v>
       </c>
     </row>
-    <row r="12" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>14</v>
       </c>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
       <c r="G12" s="9">
-        <v>-1800</v>
+        <v>-2000</v>
       </c>
       <c r="H12" s="9">
         <v>-3000</v>
@@ -1096,19 +1114,24 @@
         <v>-4000</v>
       </c>
     </row>
-    <row r="13" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
+    <row r="13" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="G13" s="6">
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="12">
         <f>SUM($G2:$G11)+$G12</f>
-        <v>331.11533586818769</v>
-      </c>
-      <c r="H13" s="6">
+        <v>131.11533586818769</v>
+      </c>
+      <c r="H13" s="12">
         <f>SUM($H2:$H11)+$H12</f>
         <v>115.33586818757931</v>
       </c>
-      <c r="I13" s="6">
+      <c r="I13" s="12">
         <f>SUM($I2:$I11)+$I12</f>
         <v>353.54879594423346</v>
       </c>

--- a/realestate/documents/RipartizioneSpeseImmobiliari.xlsx
+++ b/realestate/documents/RipartizioneSpeseImmobiliari.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\patrick.pasquillo\Documents\GitHub\Universal\realestate\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72333AEB-FEF6-4EB7-81DB-32FC245CD99A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32BB30BD-D936-4B5F-9834-C6490E26804A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C8DA3664-E04A-4EE4-B0E8-18F2F24E5315}"/>
   </bookViews>
@@ -77,9 +77,6 @@
     <t>Coeff. app. 3</t>
   </si>
   <si>
-    <t>Saldo</t>
-  </si>
-  <si>
     <t>Acconti richiesti</t>
   </si>
   <si>
@@ -99,6 +96,9 @@
   </si>
   <si>
     <t>Tot. Coeff.</t>
+  </si>
+  <si>
+    <t>Importo</t>
   </si>
 </sst>
 </file>
@@ -179,7 +179,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -189,42 +189,21 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="11">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="_-* #,##0.00\ [$€-410]_-;\-* #,##0.00\ [$€-410]_-;_-* &quot;-&quot;??\ [$€-410]_-;_-@_-"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -369,6 +348,25 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
         <b/>
       </font>
     </dxf>
@@ -386,18 +384,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7EDFFC5C-15BA-41C1-A573-16895C48713E}" name="Tabella1" displayName="Tabella1" ref="A1:I13" totalsRowShown="0" headerRowDxfId="10" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7EDFFC5C-15BA-41C1-A573-16895C48713E}" name="Tabella1" displayName="Tabella1" ref="A1:I13" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
   <autoFilter ref="A1:I13" xr:uid="{7EDFFC5C-15BA-41C1-A573-16895C48713E}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{2C273954-DE9B-4C1A-906F-88F1A8DE2F4E}" name="Spesa da ripartire" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{BDDF30DA-1A34-4AFE-8AC9-C4A5002891E6}" name="Saldo" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{F2EE9F63-F9A7-447D-B00D-397FB9B08280}" name="Coeff. app. 1" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{BA9C90F3-DDBF-49C0-B18F-A27C3F3C3441}" name="Coeff. app. 2" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{3B6004CA-EF77-449F-BDFC-540637EA9ACF}" name="Coeff. app. 3" dataDxfId="5"/>
-    <tableColumn id="9" xr3:uid="{79589C4D-015B-4F0F-8BD0-7FD3B7996590}" name="Tot. Coeff." dataDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{CE2FA730-DC58-45E1-9E24-8CCE45FCA81E}" name="App. 1" dataDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{1D501B41-CE35-4E48-95E4-C930E890E131}" name="App. 2" dataDxfId="2"/>
-    <tableColumn id="8" xr3:uid="{E0C2268A-4D14-4007-8F39-4AB92F348C25}" name="App. 3" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{2C273954-DE9B-4C1A-906F-88F1A8DE2F4E}" name="Spesa da ripartire" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{BDDF30DA-1A34-4AFE-8AC9-C4A5002891E6}" name="Importo" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{F2EE9F63-F9A7-447D-B00D-397FB9B08280}" name="Coeff. app. 1" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{BA9C90F3-DDBF-49C0-B18F-A27C3F3C3441}" name="Coeff. app. 2" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{3B6004CA-EF77-449F-BDFC-540637EA9ACF}" name="Coeff. app. 3" dataDxfId="4"/>
+    <tableColumn id="9" xr3:uid="{79589C4D-015B-4F0F-8BD0-7FD3B7996590}" name="Tot. Coeff." dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{CE2FA730-DC58-45E1-9E24-8CCE45FCA81E}" name="App. 1" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{1D501B41-CE35-4E48-95E4-C930E890E131}" name="App. 2" dataDxfId="1"/>
+    <tableColumn id="8" xr3:uid="{E0C2268A-4D14-4007-8F39-4AB92F348C25}" name="App. 3" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -738,10 +736,10 @@
   <sheetData>
     <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>10</v>
@@ -753,16 +751,16 @@
         <v>12</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
@@ -1097,41 +1095,31 @@
     </row>
     <row r="12" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" s="8">
+        <v>-2000</v>
+      </c>
+      <c r="H12" s="8">
+        <v>-3000</v>
+      </c>
+      <c r="I12" s="8">
+        <v>-4000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="9">
-        <v>-2000</v>
-      </c>
-      <c r="H12" s="9">
-        <v>-3000</v>
-      </c>
-      <c r="I12" s="9">
-        <v>-4000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="12">
+      <c r="G13" s="10">
         <f>SUM($G2:$G11)+$G12</f>
         <v>131.11533586818769</v>
       </c>
-      <c r="H13" s="12">
+      <c r="H13" s="10">
         <f>SUM($H2:$H11)+$H12</f>
         <v>115.33586818757931</v>
       </c>
-      <c r="I13" s="12">
+      <c r="I13" s="10">
         <f>SUM($I2:$I11)+$I12</f>
         <v>353.54879594423346</v>
       </c>

--- a/realestate/documents/RipartizioneSpeseImmobiliari.xlsx
+++ b/realestate/documents/RipartizioneSpeseImmobiliari.xlsx
@@ -8,13 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\patrick.pasquillo\Documents\GitHub\Universal\realestate\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32BB30BD-D936-4B5F-9834-C6490E26804A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCEFA8E4-F6B8-45DA-961D-163B75D57737}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C8DA3664-E04A-4EE4-B0E8-18F2F24E5315}"/>
   </bookViews>
   <sheets>
     <sheet name="Conguagli spese" sheetId="1" r:id="rId1"/>
+    <sheet name="Conguagli spese Prorata" sheetId="3" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Conguagli spese'!$A$1:$J$25</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'Conguagli spese Prorata'!$A$1:$J$25</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="34">
   <si>
     <t>Riscaldamento</t>
   </si>
@@ -68,15 +73,6 @@
     <t>Tv</t>
   </si>
   <si>
-    <t>Coeff. app. 1</t>
-  </si>
-  <si>
-    <t>Coeff. app. 2</t>
-  </si>
-  <si>
-    <t>Coeff. app. 3</t>
-  </si>
-  <si>
     <t>Acconti richiesti</t>
   </si>
   <si>
@@ -95,10 +91,58 @@
     <t>App. 3</t>
   </si>
   <si>
-    <t>Tot. Coeff.</t>
-  </si>
-  <si>
-    <t>Importo</t>
+    <t>m2</t>
+  </si>
+  <si>
+    <t>unità</t>
+  </si>
+  <si>
+    <t>Totale</t>
+  </si>
+  <si>
+    <t>Stabile Cedro</t>
+  </si>
+  <si>
+    <t>Ripartizione delle spese di riscaldamento e accessorie</t>
+  </si>
+  <si>
+    <t>Periodo:</t>
+  </si>
+  <si>
+    <t>Tipo di ripartizione</t>
+  </si>
+  <si>
+    <t>consumo</t>
+  </si>
+  <si>
+    <t>altro</t>
+  </si>
+  <si>
+    <t>consumo (riscaldamento)</t>
+  </si>
+  <si>
+    <t>consumo (acqua)</t>
+  </si>
+  <si>
+    <t>Tipo</t>
+  </si>
+  <si>
+    <t>Calcolo prorata</t>
+  </si>
+  <si>
+    <t>Inquilino 1</t>
+  </si>
+  <si>
+    <t>Inquilino 2</t>
+  </si>
+  <si>
+    <t>Mesi</t>
+  </si>
+  <si>
+    <t>Acconto</t>
+  </si>
+  <si>
+    <t>Conguaglio</t>
   </si>
 </sst>
 </file>
@@ -108,7 +152,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00\ [$€-410]_-;\-* #,##0.00\ [$€-410]_-;_-* &quot;-&quot;??\ [$€-410]_-;_-@_-"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -158,6 +202,31 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -179,7 +248,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -189,7 +258,6 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -199,11 +267,116 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="33">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.00\ [$€-410]_-;\-* #,##0.00\ [$€-410]_-;_-* &quot;-&quot;??\ [$€-410]_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.00\ [$€-410]_-;\-* #,##0.00\ [$€-410]_-;_-* &quot;-&quot;??\ [$€-410]_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.00\ [$€-410]_-;\-* #,##0.00\ [$€-410]_-;_-* &quot;-&quot;??\ [$€-410]_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="_-* #,##0.00\ [$€-410]_-;\-* #,##0.00\ [$€-410]_-;_-* &quot;-&quot;??\ [$€-410]_-;_-@_-"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -249,7 +422,168 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.00\ [$€-410]_-;\-* #,##0.00\ [$€-410]_-;_-* &quot;-&quot;??\ [$€-410]_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
       <alignment horizontal="general" vertical="bottom" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.00\ [$€-410]_-;\-* #,##0.00\ [$€-410]_-;_-* &quot;-&quot;??\ [$€-410]_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.00\ [$€-410]_-;\-* #,##0.00\ [$€-410]_-;_-* &quot;-&quot;??\ [$€-410]_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.00\ [$€-410]_-;\-* #,##0.00\ [$€-410]_-;_-* &quot;-&quot;??\ [$€-410]_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.00\ [$€-410]_-;\-* #,##0.00\ [$€-410]_-;_-* &quot;-&quot;??\ [$€-410]_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -272,101 +606,6 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
         <b/>
       </font>
     </dxf>
@@ -384,18 +623,76 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7EDFFC5C-15BA-41C1-A573-16895C48713E}" name="Tabella1" displayName="Tabella1" ref="A1:I13" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
-  <autoFilter ref="A1:I13" xr:uid="{7EDFFC5C-15BA-41C1-A573-16895C48713E}"/>
-  <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{2C273954-DE9B-4C1A-906F-88F1A8DE2F4E}" name="Spesa da ripartire" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{BDDF30DA-1A34-4AFE-8AC9-C4A5002891E6}" name="Importo" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{F2EE9F63-F9A7-447D-B00D-397FB9B08280}" name="Coeff. app. 1" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{BA9C90F3-DDBF-49C0-B18F-A27C3F3C3441}" name="Coeff. app. 2" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{3B6004CA-EF77-449F-BDFC-540637EA9ACF}" name="Coeff. app. 3" dataDxfId="4"/>
-    <tableColumn id="9" xr3:uid="{79589C4D-015B-4F0F-8BD0-7FD3B7996590}" name="Tot. Coeff." dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{CE2FA730-DC58-45E1-9E24-8CCE45FCA81E}" name="App. 1" dataDxfId="2"/>
-    <tableColumn id="7" xr3:uid="{1D501B41-CE35-4E48-95E4-C930E890E131}" name="App. 2" dataDxfId="1"/>
-    <tableColumn id="8" xr3:uid="{E0C2268A-4D14-4007-8F39-4AB92F348C25}" name="App. 3" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7EDFFC5C-15BA-41C1-A573-16895C48713E}" name="Tabella1" displayName="Tabella1" ref="A12:F25" totalsRowShown="0" headerRowDxfId="32" dataDxfId="31">
+  <autoFilter ref="A12:F25" xr:uid="{7EDFFC5C-15BA-41C1-A573-16895C48713E}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{2C273954-DE9B-4C1A-906F-88F1A8DE2F4E}" name="Spesa da ripartire" dataDxfId="30"/>
+    <tableColumn id="2" xr3:uid="{BDDF30DA-1A34-4AFE-8AC9-C4A5002891E6}" name="Totale" dataDxfId="29"/>
+    <tableColumn id="10" xr3:uid="{48D01DED-AE88-46F7-B2D3-DC7AC7D698CD}" name="Tipo" dataDxfId="28"/>
+    <tableColumn id="6" xr3:uid="{CE2FA730-DC58-45E1-9E24-8CCE45FCA81E}" name="App. 1" dataDxfId="27"/>
+    <tableColumn id="7" xr3:uid="{1D501B41-CE35-4E48-95E4-C930E890E131}" name="App. 2" dataDxfId="26"/>
+    <tableColumn id="8" xr3:uid="{E0C2268A-4D14-4007-8F39-4AB92F348C25}" name="App. 3" dataDxfId="25"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{ED44A568-E591-4A3F-8D96-40674BA9CBE3}" name="Tabella4" displayName="Tabella4" ref="A5:E10" totalsRowShown="0">
+  <autoFilter ref="A5:E10" xr:uid="{ED44A568-E591-4A3F-8D96-40674BA9CBE3}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{5FA9E7D7-202A-4E1B-A634-5C928F0C3DAF}" name="Tipo di ripartizione"/>
+    <tableColumn id="2" xr3:uid="{4E129D9F-4224-42E4-8173-09095C270A85}" name="App. 1" dataDxfId="24"/>
+    <tableColumn id="3" xr3:uid="{3B657F5C-AD36-496B-A58B-91D0FD74D940}" name="App. 2" dataDxfId="23"/>
+    <tableColumn id="4" xr3:uid="{D6EAECB3-C7DE-4270-B914-0A6ADB3BB4CC}" name="App. 3" dataDxfId="22"/>
+    <tableColumn id="5" xr3:uid="{7665926A-4646-456B-86BD-949B4CBD1F07}" name="Totale" dataDxfId="21"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{B7A3B0EE-106B-4B90-B5E1-1AA1E2049F05}" name="Tabella16" displayName="Tabella16" ref="A12:F25" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
+  <autoFilter ref="A12:F25" xr:uid="{7EDFFC5C-15BA-41C1-A573-16895C48713E}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{D980C600-50FF-40F9-BA9C-D627D7865C47}" name="Spesa da ripartire" dataDxfId="18"/>
+    <tableColumn id="2" xr3:uid="{800094BF-7326-49B9-804B-F0FB019EFF2B}" name="Totale" dataDxfId="17"/>
+    <tableColumn id="10" xr3:uid="{ADAF8785-5238-4735-B68D-F636B79D2698}" name="Tipo" dataDxfId="16"/>
+    <tableColumn id="6" xr3:uid="{018A85E4-D150-48B6-9349-5E22EF00FC19}" name="App. 1" dataDxfId="15"/>
+    <tableColumn id="7" xr3:uid="{23A79678-9C2C-4CB8-9AF7-874990569583}" name="App. 2" dataDxfId="14"/>
+    <tableColumn id="8" xr3:uid="{6D2AAAD5-E835-4FC4-9E3F-E269F9616D9C}" name="App. 3" dataDxfId="13"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{A3E937DA-C300-455F-B7AC-4A45B5479E6F}" name="Tabella47" displayName="Tabella47" ref="A5:E10" totalsRowShown="0">
+  <autoFilter ref="A5:E10" xr:uid="{ED44A568-E591-4A3F-8D96-40674BA9CBE3}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{8F561E8B-0447-4EB2-AC66-B959F54EBCE2}" name="Tipo di ripartizione"/>
+    <tableColumn id="2" xr3:uid="{A0E5C9C8-BBDB-4BF4-AB4E-F52AC1849A5A}" name="App. 1" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{78B3AF80-8C2C-4447-8414-98145F740A7A}" name="App. 2" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{35612B7F-D41C-4095-B625-48DB7F64DC91}" name="App. 3" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{FF9F06AC-F1DC-41CF-92A3-0CFFF00AC785}" name="Totale" dataDxfId="9"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{26D98444-E718-4DAF-A732-FD0A8C45901A}" name="Tabella7" displayName="Tabella7" ref="A27:E29" totalsRowShown="0">
+  <autoFilter ref="A27:E29" xr:uid="{26D98444-E718-4DAF-A732-FD0A8C45901A}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{069F6DA9-4A71-4C57-8936-857FEA86101B}" name="Calcolo prorata"/>
+    <tableColumn id="2" xr3:uid="{253E7923-15EA-4A25-9E0B-638EE573F3C5}" name="Mesi"/>
+    <tableColumn id="3" xr3:uid="{E3B9E5FA-5EB4-44B2-A828-0829F24A0EDC}" name="App. 3" dataDxfId="8">
+      <calculatedColumnFormula>$F$23/12*2</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{93F33975-3E35-400B-92D7-133D1D932083}" name="Acconto" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{AE0B9D65-B077-40B5-A771-D68274EB1147}" name="Conguaglio" dataDxfId="6">
+      <calculatedColumnFormula>$C28+$D28</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -718,417 +1015,1007 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD82E2A4-2D0C-4E27-8A01-B72A4F39E833}">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="23.33203125" customWidth="1"/>
+    <col min="2" max="2" width="11.109375" customWidth="1"/>
+    <col min="3" max="3" width="11.21875" customWidth="1"/>
+    <col min="4" max="4" width="12" customWidth="1"/>
+    <col min="5" max="5" width="13.44140625" customWidth="1"/>
+    <col min="6" max="6" width="13.77734375" customWidth="1"/>
+    <col min="7" max="7" width="14" customWidth="1"/>
+    <col min="8" max="8" width="13.77734375" customWidth="1"/>
+    <col min="9" max="9" width="13.88671875" customWidth="1"/>
+    <col min="10" max="10" width="13.33203125" customWidth="1"/>
+    <col min="11" max="11" width="14" customWidth="1"/>
+    <col min="14" max="14" width="13.5546875" customWidth="1"/>
+    <col min="15" max="15" width="13.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="10">
+        <v>45292</v>
+      </c>
+      <c r="C3" s="10">
+        <v>45657</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="13">
+        <v>54</v>
+      </c>
+      <c r="C6" s="13">
+        <v>85</v>
+      </c>
+      <c r="D6" s="13">
+        <v>124</v>
+      </c>
+      <c r="E6" s="13">
+        <f>SUM($B6:$D6)</f>
+        <v>263</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="13">
+        <v>10241</v>
+      </c>
+      <c r="C7" s="13">
+        <v>13400</v>
+      </c>
+      <c r="D7" s="13">
+        <v>22578</v>
+      </c>
+      <c r="E7" s="13">
+        <f>SUM($B7:$D7)</f>
+        <v>46219</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="13">
+        <v>1104</v>
+      </c>
+      <c r="C8" s="13">
+        <v>1210</v>
+      </c>
+      <c r="D8" s="13">
+        <v>1898</v>
+      </c>
+      <c r="E8" s="13">
+        <f>SUM($B8:$D8)</f>
+        <v>4212</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="13">
+        <v>1</v>
+      </c>
+      <c r="C9" s="13">
+        <v>1</v>
+      </c>
+      <c r="D9" s="13">
+        <v>1</v>
+      </c>
+      <c r="E9" s="13">
+        <f>SUM($B9:$D9)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+    </row>
+    <row r="12" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="4">
+        <v>4000</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="5">
+        <f>$B13/$E$7*$B$7</f>
+        <v>886.30217010320439</v>
+      </c>
+      <c r="E13" s="5">
+        <f>$B13/$E$7*$C$7</f>
+        <v>1159.6962288236441</v>
+      </c>
+      <c r="F13" s="5">
+        <f>$B13/$E$7*$D$7</f>
+        <v>1954.0016010731517</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" s="4">
+        <v>2000</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="5">
+        <f>$B14/$E$6*$B$6</f>
+        <v>410.64638783269965</v>
+      </c>
+      <c r="E14" s="5">
+        <f>$B14/$E$6*$C$6</f>
+        <v>646.38783269961982</v>
+      </c>
+      <c r="F14" s="5">
+        <f>$B14/$E$6*$D$6</f>
+        <v>942.96577946768059</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" s="4">
+        <v>200</v>
+      </c>
+      <c r="C15" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="5">
+        <f t="shared" ref="D15:D18" si="0">$B15/$E$6*$B$6</f>
+        <v>41.064638783269956</v>
+      </c>
+      <c r="E15" s="5">
+        <f>$B15/$E$6*$C$6</f>
+        <v>64.638783269961976</v>
+      </c>
+      <c r="F15" s="5">
+        <f t="shared" ref="F15:F18" si="1">$B15/$E$6*$D$6</f>
+        <v>94.296577946768053</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="4">
+        <v>50</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="5">
+        <f t="shared" si="0"/>
+        <v>10.266159695817489</v>
+      </c>
+      <c r="E16" s="5">
+        <f t="shared" ref="E16:E18" si="2">$B16/$E$6*$C$6</f>
+        <v>16.159695817490494</v>
+      </c>
+      <c r="F16" s="5">
+        <f t="shared" si="1"/>
+        <v>23.574144486692013</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="4">
+        <v>800</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="5">
+        <f t="shared" si="0"/>
+        <v>164.25855513307982</v>
+      </c>
+      <c r="E17" s="5">
+        <f t="shared" si="2"/>
+        <v>258.55513307984791</v>
+      </c>
+      <c r="F17" s="5">
+        <f t="shared" si="1"/>
+        <v>377.18631178707221</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="4">
+        <v>300</v>
+      </c>
+      <c r="C18" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="5">
+        <f t="shared" si="0"/>
+        <v>61.596958174904941</v>
+      </c>
+      <c r="E18" s="5">
+        <f t="shared" si="2"/>
+        <v>96.958174904942965</v>
+      </c>
+      <c r="F18" s="5">
+        <f t="shared" si="1"/>
+        <v>141.44486692015209</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" s="4">
+        <v>400</v>
+      </c>
+      <c r="C19" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" s="5">
+        <f>$B19/$E$8*$B$8</f>
+        <v>104.84330484330485</v>
+      </c>
+      <c r="E19" s="5">
+        <f>$B19/$E$8*$C$8</f>
+        <v>114.90978157644825</v>
+      </c>
+      <c r="F19" s="5">
+        <f>$B19/$E$8*$D$8</f>
+        <v>180.24691358024694</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" s="4">
+        <v>500</v>
+      </c>
+      <c r="C20" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" s="5">
+        <f>$B20/$E$6*$B$6</f>
+        <v>102.66159695817491</v>
+      </c>
+      <c r="E20" s="5">
+        <f>$B20/$E$6*$C$6</f>
+        <v>161.59695817490496</v>
+      </c>
+      <c r="F20" s="5">
+        <f>$B20/$E$6*$D$6</f>
+        <v>235.74144486692015</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" s="4">
+        <v>100</v>
+      </c>
+      <c r="C21" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" s="5">
+        <f>$B21/$E$6*$B$6</f>
+        <v>20.532319391634978</v>
+      </c>
+      <c r="E21" s="5">
+        <f>$B21/$E$6*$C$6</f>
+        <v>32.319391634980988</v>
+      </c>
+      <c r="F21" s="5">
+        <f>$B21/$E$6*$D$6</f>
+        <v>47.148288973384027</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" s="4">
+        <v>1250</v>
+      </c>
+      <c r="C22" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" s="5">
+        <f>$B22/$E$9*$B$9</f>
+        <v>416.66666666666669</v>
+      </c>
+      <c r="E22" s="5">
+        <f>$B22/$E$9*$C$9</f>
+        <v>416.66666666666669</v>
+      </c>
+      <c r="F22" s="5">
+        <f>$B22/$E$9*$D$9</f>
+        <v>416.66666666666669</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B23" s="15">
+        <f>SUBTOTAL(109,B13:B22)</f>
+        <v>9600</v>
+      </c>
+      <c r="C23" s="15"/>
+      <c r="D23" s="16">
+        <f>SUBTOTAL(109,D13:D22)</f>
+        <v>2218.8387575827578</v>
+      </c>
+      <c r="E23" s="16">
+        <f t="shared" ref="E23:F23" si="3">SUBTOTAL(109,E13:E22)</f>
+        <v>2967.8886466485078</v>
+      </c>
+      <c r="F23" s="16">
+        <f t="shared" si="3"/>
+        <v>4413.2725957687344</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" s="7">
+        <v>-2000</v>
+      </c>
+      <c r="E24" s="7">
+        <v>-3000</v>
+      </c>
+      <c r="F24" s="7">
+        <v>-4000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25" s="9">
+        <f>$D23+$D24</f>
+        <v>218.83875758275781</v>
+      </c>
+      <c r="E25" s="9">
+        <f>$E23+$E24</f>
+        <v>-32.111353351492198</v>
+      </c>
+      <c r="F25" s="9">
+        <f>$F23+$F24</f>
+        <v>413.27259576873439</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <conditionalFormatting sqref="D25:F25">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="3" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="2">
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B029749-BA36-4C12-8B1C-4D1814EDCC2E}">
+  <dimension ref="A1:F29"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="23.33203125" customWidth="1"/>
     <col min="2" max="2" width="10.109375" customWidth="1"/>
-    <col min="3" max="4" width="13.77734375" customWidth="1"/>
-    <col min="5" max="5" width="13.33203125" customWidth="1"/>
-    <col min="6" max="6" width="12.44140625" customWidth="1"/>
-    <col min="7" max="7" width="12.77734375" customWidth="1"/>
-    <col min="8" max="8" width="13.5546875" customWidth="1"/>
-    <col min="9" max="9" width="13.33203125" customWidth="1"/>
+    <col min="3" max="3" width="10.77734375" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" customWidth="1"/>
+    <col min="6" max="6" width="13.77734375" customWidth="1"/>
+    <col min="7" max="7" width="14" customWidth="1"/>
+    <col min="8" max="8" width="13.77734375" customWidth="1"/>
+    <col min="9" max="9" width="13.88671875" customWidth="1"/>
+    <col min="10" max="10" width="13.33203125" customWidth="1"/>
+    <col min="11" max="11" width="14" customWidth="1"/>
+    <col min="14" max="14" width="13.5546875" customWidth="1"/>
+    <col min="15" max="15" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="10">
+        <v>45292</v>
+      </c>
+      <c r="C3" s="10">
+        <v>45657</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="E5" s="20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="13">
+        <v>54</v>
+      </c>
+      <c r="C6" s="13">
+        <v>85</v>
+      </c>
+      <c r="D6" s="13">
+        <v>124</v>
+      </c>
+      <c r="E6" s="13">
+        <f>SUM($B6:$D6)</f>
+        <v>263</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="13">
+        <v>10241</v>
+      </c>
+      <c r="C7" s="13">
+        <v>13400</v>
+      </c>
+      <c r="D7" s="13">
+        <v>22578</v>
+      </c>
+      <c r="E7" s="13">
+        <f>SUM($B7:$D7)</f>
+        <v>46219</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="13">
+        <v>1104</v>
+      </c>
+      <c r="C8" s="13">
+        <v>1210</v>
+      </c>
+      <c r="D8" s="13">
+        <v>1898</v>
+      </c>
+      <c r="E8" s="13">
+        <f>SUM($B8:$D8)</f>
+        <v>4212</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="13">
+        <v>1</v>
+      </c>
+      <c r="C9" s="13">
+        <v>1</v>
+      </c>
+      <c r="D9" s="13">
+        <v>1</v>
+      </c>
+      <c r="E9" s="13">
+        <f>SUM($B9:$D9)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+    </row>
+    <row r="12" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="B12" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="4">
+        <v>4000</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="5">
+        <f>$B13/$E$7*$B$7</f>
+        <v>886.30217010320439</v>
+      </c>
+      <c r="E13" s="5">
+        <f>$B13/$E$7*$C$7</f>
+        <v>1159.6962288236441</v>
+      </c>
+      <c r="F13" s="5">
+        <f>$B13/$E$7*$D$7</f>
+        <v>1954.0016010731517</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" s="4">
+        <v>2000</v>
+      </c>
+      <c r="C14" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="4">
-        <v>4000</v>
-      </c>
-      <c r="C2" s="5">
-        <v>54</v>
-      </c>
-      <c r="D2" s="5">
-        <v>85</v>
-      </c>
-      <c r="E2" s="5">
-        <v>124</v>
-      </c>
-      <c r="F2" s="5">
-        <f>$C2+$D2+$E2</f>
-        <v>263</v>
-      </c>
-      <c r="G2" s="6">
-        <f>$B2/$F2*$C2</f>
-        <v>821.29277566539929</v>
-      </c>
-      <c r="H2" s="6">
-        <f>$B2/$F2*$D2</f>
-        <v>1292.7756653992396</v>
-      </c>
-      <c r="I2" s="6">
-        <f>$B2/$F2*$E2</f>
-        <v>1885.9315589353612</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="4">
-        <v>2000</v>
-      </c>
-      <c r="C3" s="5">
-        <v>54</v>
-      </c>
-      <c r="D3" s="5">
-        <v>85</v>
-      </c>
-      <c r="E3" s="5">
-        <v>124</v>
-      </c>
-      <c r="F3" s="5">
-        <f t="shared" ref="F3:F11" si="0">$C3+$D3+$E3</f>
-        <v>263</v>
-      </c>
-      <c r="G3" s="6">
-        <f t="shared" ref="G3:G11" si="1">$B3/$F3*$C3</f>
+      <c r="D14" s="5">
+        <f>$B14/$E$6*$B$6</f>
         <v>410.64638783269965</v>
       </c>
-      <c r="H3" s="6">
-        <f t="shared" ref="H3:H11" si="2">$B3/$F3*$D3</f>
+      <c r="E14" s="5">
+        <f>$B14/$E$6*$C$6</f>
         <v>646.38783269961982</v>
       </c>
-      <c r="I3" s="6">
-        <f t="shared" ref="I3:I11" si="3">$B3/$F3*$E3</f>
+      <c r="F14" s="5">
+        <f>$B14/$E$6*$D$6</f>
         <v>942.96577946768059</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B15" s="4">
         <v>200</v>
       </c>
-      <c r="C4" s="5">
-        <v>54</v>
-      </c>
-      <c r="D4" s="5">
-        <v>85</v>
-      </c>
-      <c r="E4" s="5">
-        <v>124</v>
-      </c>
-      <c r="F4" s="5">
+      <c r="C15" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="5">
+        <f t="shared" ref="D15:D18" si="0">$B15/$E$6*$B$6</f>
+        <v>41.064638783269956</v>
+      </c>
+      <c r="E15" s="5">
+        <f>$B15/$E$6*$C$6</f>
+        <v>64.638783269961976</v>
+      </c>
+      <c r="F15" s="5">
+        <f t="shared" ref="F15:F18" si="1">$B15/$E$6*$D$6</f>
+        <v>94.296577946768053</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="4">
+        <v>50</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="5">
         <f t="shared" si="0"/>
-        <v>263</v>
-      </c>
-      <c r="G4" s="6">
+        <v>10.266159695817489</v>
+      </c>
+      <c r="E16" s="5">
+        <f t="shared" ref="E16:E18" si="2">$B16/$E$6*$C$6</f>
+        <v>16.159695817490494</v>
+      </c>
+      <c r="F16" s="5">
         <f t="shared" si="1"/>
-        <v>41.064638783269956</v>
-      </c>
-      <c r="H4" s="6">
-        <f t="shared" si="2"/>
-        <v>64.638783269961976</v>
-      </c>
-      <c r="I4" s="6">
-        <f t="shared" si="3"/>
-        <v>94.296577946768053</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="4">
-        <v>50</v>
-      </c>
-      <c r="C5" s="5">
-        <v>54</v>
-      </c>
-      <c r="D5" s="5">
-        <v>85</v>
-      </c>
-      <c r="E5" s="5">
-        <v>124</v>
-      </c>
-      <c r="F5" s="5">
+        <v>23.574144486692013</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="4">
+        <v>800</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="5">
         <f t="shared" si="0"/>
-        <v>263</v>
-      </c>
-      <c r="G5" s="6">
-        <f t="shared" si="1"/>
-        <v>10.266159695817489</v>
-      </c>
-      <c r="H5" s="6">
-        <f t="shared" si="2"/>
-        <v>16.159695817490494</v>
-      </c>
-      <c r="I5" s="6">
-        <f t="shared" si="3"/>
-        <v>23.574144486692013</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="4">
-        <v>800</v>
-      </c>
-      <c r="C6" s="5">
-        <v>54</v>
-      </c>
-      <c r="D6" s="5">
-        <v>85</v>
-      </c>
-      <c r="E6" s="5">
-        <v>124</v>
-      </c>
-      <c r="F6" s="5">
-        <f t="shared" si="0"/>
-        <v>263</v>
-      </c>
-      <c r="G6" s="6">
-        <f t="shared" si="1"/>
         <v>164.25855513307982</v>
       </c>
-      <c r="H6" s="6">
+      <c r="E17" s="5">
         <f t="shared" si="2"/>
         <v>258.55513307984791</v>
       </c>
-      <c r="I6" s="6">
-        <f t="shared" si="3"/>
+      <c r="F17" s="5">
+        <f t="shared" si="1"/>
         <v>377.18631178707221</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B18" s="4">
         <v>300</v>
       </c>
-      <c r="C7" s="5">
-        <v>54</v>
-      </c>
-      <c r="D7" s="5">
-        <v>85</v>
-      </c>
-      <c r="E7" s="5">
-        <v>124</v>
-      </c>
-      <c r="F7" s="5">
+      <c r="C18" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="5">
         <f t="shared" si="0"/>
-        <v>263</v>
-      </c>
-      <c r="G7" s="6">
-        <f t="shared" si="1"/>
         <v>61.596958174904941</v>
       </c>
-      <c r="H7" s="6">
+      <c r="E18" s="5">
         <f t="shared" si="2"/>
         <v>96.958174904942965</v>
       </c>
-      <c r="I7" s="6">
+      <c r="F18" s="5">
+        <f t="shared" si="1"/>
+        <v>141.44486692015209</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" s="4">
+        <v>400</v>
+      </c>
+      <c r="C19" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" s="5">
+        <f>$B19/$E$8*$B$8</f>
+        <v>104.84330484330485</v>
+      </c>
+      <c r="E19" s="5">
+        <f>$B19/$E$8*$C$8</f>
+        <v>114.90978157644825</v>
+      </c>
+      <c r="F19" s="5">
+        <f>$B19/$E$8*$D$8</f>
+        <v>180.24691358024694</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" s="4">
+        <v>500</v>
+      </c>
+      <c r="C20" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" s="5">
+        <f>$B20/$E$6*$B$6</f>
+        <v>102.66159695817491</v>
+      </c>
+      <c r="E20" s="5">
+        <f>$B20/$E$6*$C$6</f>
+        <v>161.59695817490496</v>
+      </c>
+      <c r="F20" s="5">
+        <f>$B20/$E$6*$D$6</f>
+        <v>235.74144486692015</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" s="4">
+        <v>100</v>
+      </c>
+      <c r="C21" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" s="5">
+        <f>$B21/$E$6*$B$6</f>
+        <v>20.532319391634978</v>
+      </c>
+      <c r="E21" s="5">
+        <f>$B21/$E$6*$C$6</f>
+        <v>32.319391634980988</v>
+      </c>
+      <c r="F21" s="5">
+        <f>$B21/$E$6*$D$6</f>
+        <v>47.148288973384027</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" s="4">
+        <v>1250</v>
+      </c>
+      <c r="C22" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" s="5">
+        <f>$B22/$E$9*$B$9</f>
+        <v>416.66666666666669</v>
+      </c>
+      <c r="E22" s="5">
+        <f>$B22/$E$9*$C$9</f>
+        <v>416.66666666666669</v>
+      </c>
+      <c r="F22" s="5">
+        <f>$B22/$E$9*$D$9</f>
+        <v>416.66666666666669</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B23" s="15">
+        <f>SUBTOTAL(109,B13:B22)</f>
+        <v>9600</v>
+      </c>
+      <c r="C23" s="15"/>
+      <c r="D23" s="16">
+        <f>SUBTOTAL(109,D13:D22)</f>
+        <v>2218.8387575827578</v>
+      </c>
+      <c r="E23" s="16">
+        <f t="shared" ref="E23:F23" si="3">SUBTOTAL(109,E13:E22)</f>
+        <v>2967.8886466485078</v>
+      </c>
+      <c r="F23" s="16">
         <f t="shared" si="3"/>
-        <v>141.44486692015209</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="4">
-        <v>400</v>
-      </c>
-      <c r="C8" s="5">
-        <v>54</v>
-      </c>
-      <c r="D8" s="5">
-        <v>85</v>
-      </c>
-      <c r="E8" s="5">
-        <v>124</v>
-      </c>
-      <c r="F8" s="5">
-        <f t="shared" si="0"/>
-        <v>263</v>
-      </c>
-      <c r="G8" s="6">
-        <f t="shared" si="1"/>
-        <v>82.129277566539912</v>
-      </c>
-      <c r="H8" s="6">
-        <f t="shared" si="2"/>
-        <v>129.27756653992395</v>
-      </c>
-      <c r="I8" s="6">
-        <f t="shared" si="3"/>
-        <v>188.59315589353611</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="4">
-        <v>500</v>
-      </c>
-      <c r="C9" s="5">
-        <v>54</v>
-      </c>
-      <c r="D9" s="5">
-        <v>85</v>
-      </c>
-      <c r="E9" s="5">
-        <v>124</v>
-      </c>
-      <c r="F9" s="5">
-        <f t="shared" si="0"/>
-        <v>263</v>
-      </c>
-      <c r="G9" s="6">
-        <f t="shared" si="1"/>
-        <v>102.66159695817491</v>
-      </c>
-      <c r="H9" s="6">
-        <f t="shared" si="2"/>
-        <v>161.59695817490496</v>
-      </c>
-      <c r="I9" s="6">
-        <f t="shared" si="3"/>
-        <v>235.74144486692015</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="4">
-        <v>100</v>
-      </c>
-      <c r="C10" s="5">
-        <v>54</v>
-      </c>
-      <c r="D10" s="5">
-        <v>85</v>
-      </c>
-      <c r="E10" s="5">
-        <v>124</v>
-      </c>
-      <c r="F10" s="5">
-        <f t="shared" si="0"/>
-        <v>263</v>
-      </c>
-      <c r="G10" s="6">
-        <f t="shared" si="1"/>
-        <v>20.532319391634978</v>
-      </c>
-      <c r="H10" s="6">
-        <f t="shared" si="2"/>
-        <v>32.319391634980988</v>
-      </c>
-      <c r="I10" s="6">
-        <f t="shared" si="3"/>
-        <v>47.148288973384027</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="4">
-        <v>1250</v>
-      </c>
-      <c r="C11" s="5">
-        <v>1</v>
-      </c>
-      <c r="D11" s="5">
-        <v>1</v>
-      </c>
-      <c r="E11" s="5">
-        <v>1</v>
-      </c>
-      <c r="F11" s="5">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="G11" s="6">
-        <f t="shared" si="1"/>
-        <v>416.66666666666669</v>
-      </c>
-      <c r="H11" s="6">
-        <f t="shared" si="2"/>
-        <v>416.66666666666669</v>
-      </c>
-      <c r="I11" s="6">
-        <f t="shared" si="3"/>
-        <v>416.66666666666669</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G12" s="8">
+        <v>4413.2725957687344</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" s="7">
         <v>-2000</v>
       </c>
-      <c r="H12" s="8">
+      <c r="E24" s="7">
         <v>-3000</v>
       </c>
-      <c r="I12" s="8">
-        <v>-4000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G13" s="10">
-        <f>SUM($G2:$G11)+$G12</f>
-        <v>131.11533586818769</v>
-      </c>
-      <c r="H13" s="10">
-        <f>SUM($H2:$H11)+$H12</f>
-        <v>115.33586818757931</v>
-      </c>
-      <c r="I13" s="10">
-        <f>SUM($I2:$I11)+$I12</f>
-        <v>353.54879594423346</v>
+      <c r="F24" s="7">
+        <v>-4200</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25" s="9">
+        <f>$D23+$D24</f>
+        <v>218.83875758275781</v>
+      </c>
+      <c r="E25" s="9">
+        <f>$E23+$E24</f>
+        <v>-32.111353351492198</v>
+      </c>
+      <c r="F25" s="9">
+        <f>$F23+$F24</f>
+        <v>213.27259576873439</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="C27" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D27" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="E27" s="20" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28">
+        <v>10</v>
+      </c>
+      <c r="C28" s="12">
+        <f>$F$23/12*10</f>
+        <v>3677.727163140612</v>
+      </c>
+      <c r="D28" s="12">
+        <v>-3500</v>
+      </c>
+      <c r="E28" s="12">
+        <f t="shared" ref="E28:E29" si="4">$C28+$D28</f>
+        <v>177.72716314061199</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29">
+        <v>2</v>
+      </c>
+      <c r="C29" s="12">
+        <f>$F$23/12*2</f>
+        <v>735.5454326281224</v>
+      </c>
+      <c r="D29" s="12">
+        <v>-700</v>
+      </c>
+      <c r="E29" s="12">
+        <f t="shared" si="4"/>
+        <v>35.545432628122398</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <conditionalFormatting sqref="D25:F25">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E28:E29">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="3">
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>
--- a/realestate/documents/RipartizioneSpeseImmobiliari.xlsx
+++ b/realestate/documents/RipartizioneSpeseImmobiliari.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\patrick.pasquillo\Documents\GitHub\Universal\realestate\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCEFA8E4-F6B8-45DA-961D-163B75D57737}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2DEEA68-9535-44D7-8A91-2BA68D69CE1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C8DA3664-E04A-4EE4-B0E8-18F2F24E5315}"/>
   </bookViews>
@@ -1018,7 +1018,7 @@
   <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1447,7 +1447,7 @@
         <v>-3000</v>
       </c>
       <c r="F24" s="7">
-        <v>-4000</v>
+        <v>-4200</v>
       </c>
     </row>
     <row r="25" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -1464,7 +1464,7 @@
       </c>
       <c r="F25" s="9">
         <f>$F23+$F24</f>
-        <v>413.27259576873439</v>
+        <v>213.27259576873439</v>
       </c>
     </row>
   </sheetData>

--- a/realestate/documents/RipartizioneSpeseImmobiliari.xlsx
+++ b/realestate/documents/RipartizioneSpeseImmobiliari.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\patrick.pasquillo\Documents\GitHub\Universal\realestate\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2DEEA68-9535-44D7-8A91-2BA68D69CE1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB28798C-63E4-4CF8-9043-ACD1D6A9553D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C8DA3664-E04A-4EE4-B0E8-18F2F24E5315}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{C8DA3664-E04A-4EE4-B0E8-18F2F24E5315}"/>
   </bookViews>
   <sheets>
     <sheet name="Conguagli spese" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="35">
   <si>
     <t>Riscaldamento</t>
   </si>
@@ -143,6 +143,9 @@
   </si>
   <si>
     <t>Conguaglio</t>
+  </si>
+  <si>
+    <t>Differenze</t>
   </si>
 </sst>
 </file>
@@ -152,7 +155,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00\ [$€-410]_-;\-* #,##0.00\ [$€-410]_-;_-* &quot;-&quot;??\ [$€-410]_-;_-@_-"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -227,6 +230,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -248,7 +257,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -291,98 +300,31 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="33">
+  <dxfs count="35">
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="none"/>
       </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-* #,##0.00\ [$€-410]_-;\-* #,##0.00\ [$€-410]_-;_-* &quot;-&quot;??\ [$€-410]_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-* #,##0.00\ [$€-410]_-;\-* #,##0.00\ [$€-410]_-;_-* &quot;-&quot;??\ [$€-410]_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-* #,##0.00\ [$€-410]_-;\-* #,##0.00\ [$€-410]_-;_-* &quot;-&quot;??\ [$€-410]_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-* #,##0.00\ [$€-410]_-;\-* #,##0.00\ [$€-410]_-;_-* &quot;-&quot;??\ [$€-410]_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-* #,##0.00\ [$€-410]_-;\-* #,##0.00\ [$€-410]_-;_-* &quot;-&quot;??\ [$€-410]_-;_-@_-"/>
+      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -407,85 +349,72 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="none"/>
       </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="164" formatCode="_-* #,##0.00\ [$€-410]_-;\-* #,##0.00\ [$€-410]_-;_-* &quot;-&quot;??\ [$€-410]_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.00\ [$€-410]_-;\-* #,##0.00\ [$€-410]_-;_-* &quot;-&quot;??\ [$€-410]_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.00\ [$€-410]_-;\-* #,##0.00\ [$€-410]_-;_-* &quot;-&quot;??\ [$€-410]_-;_-@_-"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
@@ -597,6 +526,128 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.00\ [$€-410]_-;\-* #,##0.00\ [$€-410]_-;_-* &quot;-&quot;??\ [$€-410]_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.00\ [$€-410]_-;\-* #,##0.00\ [$€-410]_-;_-* &quot;-&quot;??\ [$€-410]_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.00\ [$€-410]_-;\-* #,##0.00\ [$€-410]_-;_-* &quot;-&quot;??\ [$€-410]_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.00\ [$€-410]_-;\-* #,##0.00\ [$€-410]_-;_-* &quot;-&quot;??\ [$€-410]_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
         <color theme="1"/>
         <name val="Aptos Narrow"/>
         <family val="2"/>
@@ -623,15 +674,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7EDFFC5C-15BA-41C1-A573-16895C48713E}" name="Tabella1" displayName="Tabella1" ref="A12:F25" totalsRowShown="0" headerRowDxfId="32" dataDxfId="31">
-  <autoFilter ref="A12:F25" xr:uid="{7EDFFC5C-15BA-41C1-A573-16895C48713E}"/>
-  <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{2C273954-DE9B-4C1A-906F-88F1A8DE2F4E}" name="Spesa da ripartire" dataDxfId="30"/>
-    <tableColumn id="2" xr3:uid="{BDDF30DA-1A34-4AFE-8AC9-C4A5002891E6}" name="Totale" dataDxfId="29"/>
-    <tableColumn id="10" xr3:uid="{48D01DED-AE88-46F7-B2D3-DC7AC7D698CD}" name="Tipo" dataDxfId="28"/>
-    <tableColumn id="6" xr3:uid="{CE2FA730-DC58-45E1-9E24-8CCE45FCA81E}" name="App. 1" dataDxfId="27"/>
-    <tableColumn id="7" xr3:uid="{1D501B41-CE35-4E48-95E4-C930E890E131}" name="App. 2" dataDxfId="26"/>
-    <tableColumn id="8" xr3:uid="{E0C2268A-4D14-4007-8F39-4AB92F348C25}" name="App. 3" dataDxfId="25"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7EDFFC5C-15BA-41C1-A573-16895C48713E}" name="Tabella1" displayName="Tabella1" ref="A12:G25" totalsRowShown="0" headerRowDxfId="34" dataDxfId="33">
+  <autoFilter ref="A12:G25" xr:uid="{7EDFFC5C-15BA-41C1-A573-16895C48713E}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{2C273954-DE9B-4C1A-906F-88F1A8DE2F4E}" name="Spesa da ripartire" dataDxfId="32"/>
+    <tableColumn id="2" xr3:uid="{BDDF30DA-1A34-4AFE-8AC9-C4A5002891E6}" name="Totale" dataDxfId="31"/>
+    <tableColumn id="10" xr3:uid="{48D01DED-AE88-46F7-B2D3-DC7AC7D698CD}" name="Tipo" dataDxfId="30"/>
+    <tableColumn id="6" xr3:uid="{CE2FA730-DC58-45E1-9E24-8CCE45FCA81E}" name="App. 1" dataDxfId="29"/>
+    <tableColumn id="7" xr3:uid="{1D501B41-CE35-4E48-95E4-C930E890E131}" name="App. 2" dataDxfId="28"/>
+    <tableColumn id="8" xr3:uid="{E0C2268A-4D14-4007-8F39-4AB92F348C25}" name="App. 3" dataDxfId="27"/>
+    <tableColumn id="3" xr3:uid="{687F9840-998B-484E-9F28-0E94F3AD28F1}" name="Differenze" dataDxfId="1">
+      <calculatedColumnFormula>$B13-SUM($D13:$F13)</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -642,25 +696,28 @@
   <autoFilter ref="A5:E10" xr:uid="{ED44A568-E591-4A3F-8D96-40674BA9CBE3}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{5FA9E7D7-202A-4E1B-A634-5C928F0C3DAF}" name="Tipo di ripartizione"/>
-    <tableColumn id="2" xr3:uid="{4E129D9F-4224-42E4-8173-09095C270A85}" name="App. 1" dataDxfId="24"/>
-    <tableColumn id="3" xr3:uid="{3B657F5C-AD36-496B-A58B-91D0FD74D940}" name="App. 2" dataDxfId="23"/>
-    <tableColumn id="4" xr3:uid="{D6EAECB3-C7DE-4270-B914-0A6ADB3BB4CC}" name="App. 3" dataDxfId="22"/>
-    <tableColumn id="5" xr3:uid="{7665926A-4646-456B-86BD-949B4CBD1F07}" name="Totale" dataDxfId="21"/>
+    <tableColumn id="2" xr3:uid="{4E129D9F-4224-42E4-8173-09095C270A85}" name="App. 1" dataDxfId="26"/>
+    <tableColumn id="3" xr3:uid="{3B657F5C-AD36-496B-A58B-91D0FD74D940}" name="App. 2" dataDxfId="25"/>
+    <tableColumn id="4" xr3:uid="{D6EAECB3-C7DE-4270-B914-0A6ADB3BB4CC}" name="App. 3" dataDxfId="24"/>
+    <tableColumn id="5" xr3:uid="{7665926A-4646-456B-86BD-949B4CBD1F07}" name="Totale" dataDxfId="23"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{B7A3B0EE-106B-4B90-B5E1-1AA1E2049F05}" name="Tabella16" displayName="Tabella16" ref="A12:F25" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
-  <autoFilter ref="A12:F25" xr:uid="{7EDFFC5C-15BA-41C1-A573-16895C48713E}"/>
-  <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{D980C600-50FF-40F9-BA9C-D627D7865C47}" name="Spesa da ripartire" dataDxfId="18"/>
-    <tableColumn id="2" xr3:uid="{800094BF-7326-49B9-804B-F0FB019EFF2B}" name="Totale" dataDxfId="17"/>
-    <tableColumn id="10" xr3:uid="{ADAF8785-5238-4735-B68D-F636B79D2698}" name="Tipo" dataDxfId="16"/>
-    <tableColumn id="6" xr3:uid="{018A85E4-D150-48B6-9349-5E22EF00FC19}" name="App. 1" dataDxfId="15"/>
-    <tableColumn id="7" xr3:uid="{23A79678-9C2C-4CB8-9AF7-874990569583}" name="App. 2" dataDxfId="14"/>
-    <tableColumn id="8" xr3:uid="{6D2AAAD5-E835-4FC4-9E3F-E269F9616D9C}" name="App. 3" dataDxfId="13"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{B7A3B0EE-106B-4B90-B5E1-1AA1E2049F05}" name="Tabella16" displayName="Tabella16" ref="A12:G25" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21">
+  <autoFilter ref="A12:G25" xr:uid="{7EDFFC5C-15BA-41C1-A573-16895C48713E}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{D980C600-50FF-40F9-BA9C-D627D7865C47}" name="Spesa da ripartire" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{800094BF-7326-49B9-804B-F0FB019EFF2B}" name="Totale" dataDxfId="19"/>
+    <tableColumn id="10" xr3:uid="{ADAF8785-5238-4735-B68D-F636B79D2698}" name="Tipo" dataDxfId="18"/>
+    <tableColumn id="6" xr3:uid="{018A85E4-D150-48B6-9349-5E22EF00FC19}" name="App. 1" dataDxfId="17"/>
+    <tableColumn id="7" xr3:uid="{23A79678-9C2C-4CB8-9AF7-874990569583}" name="App. 2" dataDxfId="16"/>
+    <tableColumn id="8" xr3:uid="{6D2AAAD5-E835-4FC4-9E3F-E269F9616D9C}" name="App. 3" dataDxfId="15"/>
+    <tableColumn id="3" xr3:uid="{2C370E16-C2F9-4889-B618-1E8D4B554027}" name="Differenze" dataDxfId="0">
+      <calculatedColumnFormula>$B13-SUM($D13:$F13)</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -671,10 +728,10 @@
   <autoFilter ref="A5:E10" xr:uid="{ED44A568-E591-4A3F-8D96-40674BA9CBE3}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{8F561E8B-0447-4EB2-AC66-B959F54EBCE2}" name="Tipo di ripartizione"/>
-    <tableColumn id="2" xr3:uid="{A0E5C9C8-BBDB-4BF4-AB4E-F52AC1849A5A}" name="App. 1" dataDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{78B3AF80-8C2C-4447-8414-98145F740A7A}" name="App. 2" dataDxfId="11"/>
-    <tableColumn id="4" xr3:uid="{35612B7F-D41C-4095-B625-48DB7F64DC91}" name="App. 3" dataDxfId="10"/>
-    <tableColumn id="5" xr3:uid="{FF9F06AC-F1DC-41CF-92A3-0CFFF00AC785}" name="Totale" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{A0E5C9C8-BBDB-4BF4-AB4E-F52AC1849A5A}" name="App. 1" dataDxfId="14"/>
+    <tableColumn id="3" xr3:uid="{78B3AF80-8C2C-4447-8414-98145F740A7A}" name="App. 2" dataDxfId="13"/>
+    <tableColumn id="4" xr3:uid="{35612B7F-D41C-4095-B625-48DB7F64DC91}" name="App. 3" dataDxfId="12"/>
+    <tableColumn id="5" xr3:uid="{FF9F06AC-F1DC-41CF-92A3-0CFFF00AC785}" name="Totale" dataDxfId="11"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -686,11 +743,11 @@
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{069F6DA9-4A71-4C57-8936-857FEA86101B}" name="Calcolo prorata"/>
     <tableColumn id="2" xr3:uid="{253E7923-15EA-4A25-9E0B-638EE573F3C5}" name="Mesi"/>
-    <tableColumn id="3" xr3:uid="{E3B9E5FA-5EB4-44B2-A828-0829F24A0EDC}" name="App. 3" dataDxfId="8">
+    <tableColumn id="3" xr3:uid="{E3B9E5FA-5EB4-44B2-A828-0829F24A0EDC}" name="App. 3" dataDxfId="10">
       <calculatedColumnFormula>$F$23/12*2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{93F33975-3E35-400B-92D7-133D1D932083}" name="Acconto" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{AE0B9D65-B077-40B5-A771-D68274EB1147}" name="Conguaglio" dataDxfId="6">
+    <tableColumn id="4" xr3:uid="{93F33975-3E35-400B-92D7-133D1D932083}" name="Acconto" dataDxfId="9"/>
+    <tableColumn id="5" xr3:uid="{AE0B9D65-B077-40B5-A771-D68274EB1147}" name="Conguaglio" dataDxfId="8">
       <calculatedColumnFormula>$C28+$D28</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1015,10 +1072,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD82E2A4-2D0C-4E27-8A01-B72A4F39E833}">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1038,17 +1095,17 @@
     <col min="15" max="15" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -1059,11 +1116,11 @@
         <v>45657</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B4" s="10"/>
       <c r="C4" s="10"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -1080,7 +1137,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -1098,7 +1155,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>25</v>
       </c>
@@ -1116,7 +1173,7 @@
         <v>46219</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>26</v>
       </c>
@@ -1134,7 +1191,7 @@
         <v>4212</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -1152,7 +1209,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>24</v>
       </c>
@@ -1160,11 +1217,11 @@
       <c r="C10" s="13"/>
       <c r="D10" s="13"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B11" s="10"/>
       <c r="C11" s="10"/>
     </row>
-    <row r="12" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
@@ -1183,8 +1240,11 @@
       <c r="F12" s="18" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G12" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>0</v>
       </c>
@@ -1206,8 +1266,12 @@
         <f>$B13/$E$7*$D$7</f>
         <v>1954.0016010731517</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G13" s="22">
+        <f t="shared" ref="G13:G25" si="0">$B13-SUM($D13:$F13)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>1</v>
       </c>
@@ -1229,8 +1293,12 @@
         <f>$B14/$E$6*$D$6</f>
         <v>942.96577946768059</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G14" s="22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>2</v>
       </c>
@@ -1241,7 +1309,7 @@
         <v>16</v>
       </c>
       <c r="D15" s="5">
-        <f t="shared" ref="D15:D18" si="0">$B15/$E$6*$B$6</f>
+        <f t="shared" ref="D15:D18" si="1">$B15/$E$6*$B$6</f>
         <v>41.064638783269956</v>
       </c>
       <c r="E15" s="5">
@@ -1249,11 +1317,15 @@
         <v>64.638783269961976</v>
       </c>
       <c r="F15" s="5">
-        <f t="shared" ref="F15:F18" si="1">$B15/$E$6*$D$6</f>
+        <f t="shared" ref="F15:F18" si="2">$B15/$E$6*$D$6</f>
         <v>94.296577946768053</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G15" s="22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>3</v>
       </c>
@@ -1264,19 +1336,23 @@
         <v>16</v>
       </c>
       <c r="D16" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10.266159695817489</v>
       </c>
       <c r="E16" s="5">
-        <f t="shared" ref="E16:E18" si="2">$B16/$E$6*$C$6</f>
+        <f t="shared" ref="E16:E18" si="3">$B16/$E$6*$C$6</f>
         <v>16.159695817490494</v>
       </c>
       <c r="F16" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>23.574144486692013</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G16" s="22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>4</v>
       </c>
@@ -1287,19 +1363,23 @@
         <v>16</v>
       </c>
       <c r="D17" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>164.25855513307982</v>
       </c>
       <c r="E17" s="5">
+        <f t="shared" si="3"/>
+        <v>258.55513307984791</v>
+      </c>
+      <c r="F17" s="5">
         <f t="shared" si="2"/>
-        <v>258.55513307984791</v>
-      </c>
-      <c r="F17" s="5">
-        <f t="shared" si="1"/>
         <v>377.18631178707221</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G17" s="22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>5</v>
       </c>
@@ -1310,19 +1390,23 @@
         <v>16</v>
       </c>
       <c r="D18" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>61.596958174904941</v>
       </c>
       <c r="E18" s="5">
+        <f t="shared" si="3"/>
+        <v>96.958174904942965</v>
+      </c>
+      <c r="F18" s="5">
         <f t="shared" si="2"/>
-        <v>96.958174904942965</v>
-      </c>
-      <c r="F18" s="5">
-        <f t="shared" si="1"/>
         <v>141.44486692015209</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G18" s="22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>6</v>
       </c>
@@ -1344,8 +1428,12 @@
         <f>$B19/$E$8*$D$8</f>
         <v>180.24691358024694</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G19" s="22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>7</v>
       </c>
@@ -1367,8 +1455,12 @@
         <f>$B20/$E$6*$D$6</f>
         <v>235.74144486692015</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G20" s="22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>8</v>
       </c>
@@ -1390,8 +1482,12 @@
         <f>$B21/$E$6*$D$6</f>
         <v>47.148288973384027</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G21" s="22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>9</v>
       </c>
@@ -1413,8 +1509,12 @@
         <f>$B22/$E$9*$D$9</f>
         <v>416.66666666666669</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G22" s="22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="14" t="s">
         <v>18</v>
       </c>
@@ -1428,15 +1528,19 @@
         <v>2218.8387575827578</v>
       </c>
       <c r="E23" s="16">
-        <f t="shared" ref="E23:F23" si="3">SUBTOTAL(109,E13:E22)</f>
+        <f t="shared" ref="E23:F23" si="4">SUBTOTAL(109,E13:E22)</f>
         <v>2967.8886466485078</v>
       </c>
       <c r="F23" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4413.2725957687344</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G23" s="22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
         <v>10</v>
       </c>
@@ -1449,8 +1553,12 @@
       <c r="F24" s="7">
         <v>-4200</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G24" s="22">
+        <f t="shared" si="0"/>
+        <v>9200</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="8" t="s">
         <v>11</v>
       </c>
@@ -1466,14 +1574,18 @@
         <f>$F23+$F24</f>
         <v>213.27259576873439</v>
       </c>
+      <c r="G25" s="22">
+        <f t="shared" si="0"/>
+        <v>-400</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="D25:F25">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="7" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="6" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1488,15 +1600,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B029749-BA36-4C12-8B1C-4D1814EDCC2E}">
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="23.33203125" customWidth="1"/>
-    <col min="2" max="2" width="10.109375" customWidth="1"/>
-    <col min="3" max="3" width="10.77734375" customWidth="1"/>
+    <col min="2" max="2" width="11.5546875" customWidth="1"/>
+    <col min="3" max="3" width="11.21875" customWidth="1"/>
     <col min="4" max="4" width="11.44140625" customWidth="1"/>
     <col min="5" max="5" width="14.33203125" customWidth="1"/>
     <col min="6" max="6" width="13.77734375" customWidth="1"/>
@@ -1509,17 +1621,17 @@
     <col min="15" max="15" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -1530,11 +1642,11 @@
         <v>45657</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B4" s="10"/>
       <c r="C4" s="10"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -1551,7 +1663,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -1569,7 +1681,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>25</v>
       </c>
@@ -1587,7 +1699,7 @@
         <v>46219</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>26</v>
       </c>
@@ -1605,7 +1717,7 @@
         <v>4212</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -1623,7 +1735,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>24</v>
       </c>
@@ -1631,11 +1743,11 @@
       <c r="C10" s="13"/>
       <c r="D10" s="13"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B11" s="10"/>
       <c r="C11" s="10"/>
     </row>
-    <row r="12" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
@@ -1654,8 +1766,11 @@
       <c r="F12" s="18" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G12" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>0</v>
       </c>
@@ -1677,8 +1792,12 @@
         <f>$B13/$E$7*$D$7</f>
         <v>1954.0016010731517</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G13" s="23">
+        <f t="shared" ref="G13:G25" si="0">$B13-SUM($D13:$F13)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>1</v>
       </c>
@@ -1700,8 +1819,12 @@
         <f>$B14/$E$6*$D$6</f>
         <v>942.96577946768059</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G14" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>2</v>
       </c>
@@ -1712,7 +1835,7 @@
         <v>16</v>
       </c>
       <c r="D15" s="5">
-        <f t="shared" ref="D15:D18" si="0">$B15/$E$6*$B$6</f>
+        <f t="shared" ref="D15:D18" si="1">$B15/$E$6*$B$6</f>
         <v>41.064638783269956</v>
       </c>
       <c r="E15" s="5">
@@ -1720,11 +1843,15 @@
         <v>64.638783269961976</v>
       </c>
       <c r="F15" s="5">
-        <f t="shared" ref="F15:F18" si="1">$B15/$E$6*$D$6</f>
+        <f t="shared" ref="F15:F18" si="2">$B15/$E$6*$D$6</f>
         <v>94.296577946768053</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G15" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>3</v>
       </c>
@@ -1735,19 +1862,23 @@
         <v>16</v>
       </c>
       <c r="D16" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10.266159695817489</v>
       </c>
       <c r="E16" s="5">
-        <f t="shared" ref="E16:E18" si="2">$B16/$E$6*$C$6</f>
+        <f t="shared" ref="E16:E18" si="3">$B16/$E$6*$C$6</f>
         <v>16.159695817490494</v>
       </c>
       <c r="F16" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>23.574144486692013</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G16" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>4</v>
       </c>
@@ -1758,19 +1889,23 @@
         <v>16</v>
       </c>
       <c r="D17" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>164.25855513307982</v>
       </c>
       <c r="E17" s="5">
+        <f t="shared" si="3"/>
+        <v>258.55513307984791</v>
+      </c>
+      <c r="F17" s="5">
         <f t="shared" si="2"/>
-        <v>258.55513307984791</v>
-      </c>
-      <c r="F17" s="5">
-        <f t="shared" si="1"/>
         <v>377.18631178707221</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G17" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>5</v>
       </c>
@@ -1781,19 +1916,23 @@
         <v>16</v>
       </c>
       <c r="D18" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>61.596958174904941</v>
       </c>
       <c r="E18" s="5">
+        <f t="shared" si="3"/>
+        <v>96.958174904942965</v>
+      </c>
+      <c r="F18" s="5">
         <f t="shared" si="2"/>
-        <v>96.958174904942965</v>
-      </c>
-      <c r="F18" s="5">
-        <f t="shared" si="1"/>
         <v>141.44486692015209</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G18" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>6</v>
       </c>
@@ -1815,8 +1954,12 @@
         <f>$B19/$E$8*$D$8</f>
         <v>180.24691358024694</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G19" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>7</v>
       </c>
@@ -1838,8 +1981,12 @@
         <f>$B20/$E$6*$D$6</f>
         <v>235.74144486692015</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G20" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>8</v>
       </c>
@@ -1861,8 +2008,12 @@
         <f>$B21/$E$6*$D$6</f>
         <v>47.148288973384027</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G21" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>9</v>
       </c>
@@ -1884,8 +2035,12 @@
         <f>$B22/$E$9*$D$9</f>
         <v>416.66666666666669</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G22" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="14" t="s">
         <v>18</v>
       </c>
@@ -1899,15 +2054,19 @@
         <v>2218.8387575827578</v>
       </c>
       <c r="E23" s="16">
-        <f t="shared" ref="E23:F23" si="3">SUBTOTAL(109,E13:E22)</f>
+        <f t="shared" ref="E23:F23" si="4">SUBTOTAL(109,E13:E22)</f>
         <v>2967.8886466485078</v>
       </c>
       <c r="F23" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4413.2725957687344</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G23" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
         <v>10</v>
       </c>
@@ -1920,8 +2079,12 @@
       <c r="F24" s="7">
         <v>-4200</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G24" s="23">
+        <f t="shared" si="0"/>
+        <v>9200</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="8" t="s">
         <v>11</v>
       </c>
@@ -1937,8 +2100,12 @@
         <f>$F23+$F24</f>
         <v>213.27259576873439</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G25" s="23">
+        <f t="shared" si="0"/>
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>28</v>
       </c>
@@ -1955,7 +2122,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>29</v>
       </c>
@@ -1970,11 +2137,11 @@
         <v>-3500</v>
       </c>
       <c r="E28" s="12">
-        <f t="shared" ref="E28:E29" si="4">$C28+$D28</f>
+        <f t="shared" ref="E28:E29" si="5">$C28+$D28</f>
         <v>177.72716314061199</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>30</v>
       </c>
@@ -1989,24 +2156,24 @@
         <v>-700</v>
       </c>
       <c r="E29" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>35.545432628122398</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="D25:F25">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E28:E29">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/realestate/documents/RipartizioneSpeseImmobiliari.xlsx
+++ b/realestate/documents/RipartizioneSpeseImmobiliari.xlsx
@@ -8,17 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\patrick.pasquillo\Documents\GitHub\Universal\realestate\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB28798C-63E4-4CF8-9043-ACD1D6A9553D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D41F9B9-6062-4FDF-B41D-2A8AFEC1BCD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{C8DA3664-E04A-4EE4-B0E8-18F2F24E5315}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C8DA3664-E04A-4EE4-B0E8-18F2F24E5315}"/>
   </bookViews>
   <sheets>
     <sheet name="Conguagli spese" sheetId="1" r:id="rId1"/>
     <sheet name="Conguagli spese Prorata" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Conguagli spese'!$A$1:$J$25</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'Conguagli spese Prorata'!$A$1:$J$25</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Conguagli spese'!$A$1:$G$25</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'Conguagli spese Prorata'!$A$1:$G$29</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1074,9 +1074,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD82E2A4-2D0C-4E27-8A01-B72A4F39E833}">
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1602,7 +1600,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B029749-BA36-4C12-8B1C-4D1814EDCC2E}">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:G29"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>

--- a/realestate/documents/RipartizioneSpeseImmobiliari.xlsx
+++ b/realestate/documents/RipartizioneSpeseImmobiliari.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\patrick.pasquillo\Documents\GitHub\Universal\realestate\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D41F9B9-6062-4FDF-B41D-2A8AFEC1BCD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6AEA597-3338-4514-8002-64EE4C3356AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C8DA3664-E04A-4EE4-B0E8-18F2F24E5315}"/>
   </bookViews>
@@ -257,7 +257,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -300,33 +300,12 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="35">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -348,6 +327,34 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.00\ [$€-410]_-;\-* #,##0.00\ [$€-410]_-;_-* &quot;-&quot;??\ [$€-410]_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.00\ [$€-410]_-;\-* #,##0.00\ [$€-410]_-;_-* &quot;-&quot;??\ [$€-410]_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.00\ [$€-410]_-;\-* #,##0.00\ [$€-410]_-;_-* &quot;-&quot;??\ [$€-410]_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -427,10 +434,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-* #,##0.00\ [$€-410]_-;\-* #,##0.00\ [$€-410]_-;_-* &quot;-&quot;??\ [$€-410]_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="_-* #,##0.00\ [$€-410]_-;\-* #,##0.00\ [$€-410]_-;_-* &quot;-&quot;??\ [$€-410]_-;_-@_-"/>
@@ -549,10 +552,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-* #,##0.00\ [$€-410]_-;\-* #,##0.00\ [$€-410]_-;_-* &quot;-&quot;??\ [$€-410]_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="_-* #,##0.00\ [$€-410]_-;\-* #,##0.00\ [$€-410]_-;_-* &quot;-&quot;??\ [$€-410]_-;_-@_-"/>
@@ -682,9 +681,9 @@
     <tableColumn id="10" xr3:uid="{48D01DED-AE88-46F7-B2D3-DC7AC7D698CD}" name="Tipo" dataDxfId="30"/>
     <tableColumn id="6" xr3:uid="{CE2FA730-DC58-45E1-9E24-8CCE45FCA81E}" name="App. 1" dataDxfId="29"/>
     <tableColumn id="7" xr3:uid="{1D501B41-CE35-4E48-95E4-C930E890E131}" name="App. 2" dataDxfId="28"/>
-    <tableColumn id="8" xr3:uid="{E0C2268A-4D14-4007-8F39-4AB92F348C25}" name="App. 3" dataDxfId="27"/>
-    <tableColumn id="3" xr3:uid="{687F9840-998B-484E-9F28-0E94F3AD28F1}" name="Differenze" dataDxfId="1">
-      <calculatedColumnFormula>$B13-SUM($D13:$F13)</calculatedColumnFormula>
+    <tableColumn id="8" xr3:uid="{E0C2268A-4D14-4007-8F39-4AB92F348C25}" name="App. 3" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{687F9840-998B-484E-9F28-0E94F3AD28F1}" name="Differenze" dataDxfId="0">
+      <calculatedColumnFormula>$D13+$E13+$F13</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -696,26 +695,26 @@
   <autoFilter ref="A5:E10" xr:uid="{ED44A568-E591-4A3F-8D96-40674BA9CBE3}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{5FA9E7D7-202A-4E1B-A634-5C928F0C3DAF}" name="Tipo di ripartizione"/>
-    <tableColumn id="2" xr3:uid="{4E129D9F-4224-42E4-8173-09095C270A85}" name="App. 1" dataDxfId="26"/>
-    <tableColumn id="3" xr3:uid="{3B657F5C-AD36-496B-A58B-91D0FD74D940}" name="App. 2" dataDxfId="25"/>
-    <tableColumn id="4" xr3:uid="{D6EAECB3-C7DE-4270-B914-0A6ADB3BB4CC}" name="App. 3" dataDxfId="24"/>
-    <tableColumn id="5" xr3:uid="{7665926A-4646-456B-86BD-949B4CBD1F07}" name="Totale" dataDxfId="23"/>
+    <tableColumn id="2" xr3:uid="{4E129D9F-4224-42E4-8173-09095C270A85}" name="App. 1" dataDxfId="27"/>
+    <tableColumn id="3" xr3:uid="{3B657F5C-AD36-496B-A58B-91D0FD74D940}" name="App. 2" dataDxfId="26"/>
+    <tableColumn id="4" xr3:uid="{D6EAECB3-C7DE-4270-B914-0A6ADB3BB4CC}" name="App. 3" dataDxfId="25"/>
+    <tableColumn id="5" xr3:uid="{7665926A-4646-456B-86BD-949B4CBD1F07}" name="Totale" dataDxfId="24"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{B7A3B0EE-106B-4B90-B5E1-1AA1E2049F05}" name="Tabella16" displayName="Tabella16" ref="A12:G25" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{B7A3B0EE-106B-4B90-B5E1-1AA1E2049F05}" name="Tabella16" displayName="Tabella16" ref="A12:G25" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
   <autoFilter ref="A12:G25" xr:uid="{7EDFFC5C-15BA-41C1-A573-16895C48713E}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{D980C600-50FF-40F9-BA9C-D627D7865C47}" name="Spesa da ripartire" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{800094BF-7326-49B9-804B-F0FB019EFF2B}" name="Totale" dataDxfId="19"/>
-    <tableColumn id="10" xr3:uid="{ADAF8785-5238-4735-B68D-F636B79D2698}" name="Tipo" dataDxfId="18"/>
-    <tableColumn id="6" xr3:uid="{018A85E4-D150-48B6-9349-5E22EF00FC19}" name="App. 1" dataDxfId="17"/>
-    <tableColumn id="7" xr3:uid="{23A79678-9C2C-4CB8-9AF7-874990569583}" name="App. 2" dataDxfId="16"/>
-    <tableColumn id="8" xr3:uid="{6D2AAAD5-E835-4FC4-9E3F-E269F9616D9C}" name="App. 3" dataDxfId="15"/>
-    <tableColumn id="3" xr3:uid="{2C370E16-C2F9-4889-B618-1E8D4B554027}" name="Differenze" dataDxfId="0">
+    <tableColumn id="1" xr3:uid="{D980C600-50FF-40F9-BA9C-D627D7865C47}" name="Spesa da ripartire" dataDxfId="21"/>
+    <tableColumn id="2" xr3:uid="{800094BF-7326-49B9-804B-F0FB019EFF2B}" name="Totale" dataDxfId="20"/>
+    <tableColumn id="10" xr3:uid="{ADAF8785-5238-4735-B68D-F636B79D2698}" name="Tipo" dataDxfId="19"/>
+    <tableColumn id="6" xr3:uid="{018A85E4-D150-48B6-9349-5E22EF00FC19}" name="App. 1" dataDxfId="18"/>
+    <tableColumn id="7" xr3:uid="{23A79678-9C2C-4CB8-9AF7-874990569583}" name="App. 2" dataDxfId="17"/>
+    <tableColumn id="8" xr3:uid="{6D2AAAD5-E835-4FC4-9E3F-E269F9616D9C}" name="App. 3" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{2C370E16-C2F9-4889-B618-1E8D4B554027}" name="Differenze" dataDxfId="2">
       <calculatedColumnFormula>$B13-SUM($D13:$F13)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -728,10 +727,10 @@
   <autoFilter ref="A5:E10" xr:uid="{ED44A568-E591-4A3F-8D96-40674BA9CBE3}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{8F561E8B-0447-4EB2-AC66-B959F54EBCE2}" name="Tipo di ripartizione"/>
-    <tableColumn id="2" xr3:uid="{A0E5C9C8-BBDB-4BF4-AB4E-F52AC1849A5A}" name="App. 1" dataDxfId="14"/>
-    <tableColumn id="3" xr3:uid="{78B3AF80-8C2C-4447-8414-98145F740A7A}" name="App. 2" dataDxfId="13"/>
-    <tableColumn id="4" xr3:uid="{35612B7F-D41C-4095-B625-48DB7F64DC91}" name="App. 3" dataDxfId="12"/>
-    <tableColumn id="5" xr3:uid="{FF9F06AC-F1DC-41CF-92A3-0CFFF00AC785}" name="Totale" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{A0E5C9C8-BBDB-4BF4-AB4E-F52AC1849A5A}" name="App. 1" dataDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{78B3AF80-8C2C-4447-8414-98145F740A7A}" name="App. 2" dataDxfId="15"/>
+    <tableColumn id="4" xr3:uid="{35612B7F-D41C-4095-B625-48DB7F64DC91}" name="App. 3" dataDxfId="14"/>
+    <tableColumn id="5" xr3:uid="{FF9F06AC-F1DC-41CF-92A3-0CFFF00AC785}" name="Totale" dataDxfId="13"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -743,11 +742,11 @@
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{069F6DA9-4A71-4C57-8936-857FEA86101B}" name="Calcolo prorata"/>
     <tableColumn id="2" xr3:uid="{253E7923-15EA-4A25-9E0B-638EE573F3C5}" name="Mesi"/>
-    <tableColumn id="3" xr3:uid="{E3B9E5FA-5EB4-44B2-A828-0829F24A0EDC}" name="App. 3" dataDxfId="10">
+    <tableColumn id="3" xr3:uid="{E3B9E5FA-5EB4-44B2-A828-0829F24A0EDC}" name="App. 3" dataDxfId="12">
       <calculatedColumnFormula>$F$23/12*2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{93F33975-3E35-400B-92D7-133D1D932083}" name="Acconto" dataDxfId="9"/>
-    <tableColumn id="5" xr3:uid="{AE0B9D65-B077-40B5-A771-D68274EB1147}" name="Conguaglio" dataDxfId="8">
+    <tableColumn id="4" xr3:uid="{93F33975-3E35-400B-92D7-133D1D932083}" name="Acconto" dataDxfId="11"/>
+    <tableColumn id="5" xr3:uid="{AE0B9D65-B077-40B5-A771-D68274EB1147}" name="Conguaglio" dataDxfId="10">
       <calculatedColumnFormula>$C28+$D28</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1264,8 +1263,8 @@
         <f>$B13/$E$7*$D$7</f>
         <v>1954.0016010731517</v>
       </c>
-      <c r="G13" s="22">
-        <f t="shared" ref="G13:G25" si="0">$B13-SUM($D13:$F13)</f>
+      <c r="G13" s="5">
+        <f>$B13-SUM($D13:$F13)</f>
         <v>0</v>
       </c>
     </row>
@@ -1291,8 +1290,8 @@
         <f>$B14/$E$6*$D$6</f>
         <v>942.96577946768059</v>
       </c>
-      <c r="G14" s="22">
-        <f t="shared" si="0"/>
+      <c r="G14" s="5">
+        <f t="shared" ref="G14:G25" si="0">$B14-SUM($D14:$F14)</f>
         <v>0</v>
       </c>
     </row>
@@ -1318,7 +1317,7 @@
         <f t="shared" ref="F15:F18" si="2">$B15/$E$6*$D$6</f>
         <v>94.296577946768053</v>
       </c>
-      <c r="G15" s="22">
+      <c r="G15" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1345,7 +1344,7 @@
         <f t="shared" si="2"/>
         <v>23.574144486692013</v>
       </c>
-      <c r="G16" s="22">
+      <c r="G16" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1372,7 +1371,7 @@
         <f t="shared" si="2"/>
         <v>377.18631178707221</v>
       </c>
-      <c r="G17" s="22">
+      <c r="G17" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1399,7 +1398,7 @@
         <f t="shared" si="2"/>
         <v>141.44486692015209</v>
       </c>
-      <c r="G18" s="22">
+      <c r="G18" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1426,7 +1425,7 @@
         <f>$B19/$E$8*$D$8</f>
         <v>180.24691358024694</v>
       </c>
-      <c r="G19" s="22">
+      <c r="G19" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1453,7 +1452,7 @@
         <f>$B20/$E$6*$D$6</f>
         <v>235.74144486692015</v>
       </c>
-      <c r="G20" s="22">
+      <c r="G20" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1480,7 +1479,7 @@
         <f>$B21/$E$6*$D$6</f>
         <v>47.148288973384027</v>
       </c>
-      <c r="G21" s="22">
+      <c r="G21" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1507,7 +1506,7 @@
         <f>$B22/$E$9*$D$9</f>
         <v>416.66666666666669</v>
       </c>
-      <c r="G22" s="22">
+      <c r="G22" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1533,7 +1532,7 @@
         <f t="shared" si="4"/>
         <v>4413.2725957687344</v>
       </c>
-      <c r="G23" s="22">
+      <c r="G23" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1542,6 +1541,10 @@
       <c r="A24" s="6" t="s">
         <v>10</v>
       </c>
+      <c r="B24" s="7">
+        <f>SUM($D24:$F24)</f>
+        <v>-9200</v>
+      </c>
       <c r="D24" s="7">
         <v>-2000</v>
       </c>
@@ -1551,15 +1554,19 @@
       <c r="F24" s="7">
         <v>-4200</v>
       </c>
-      <c r="G24" s="22">
+      <c r="G24" s="5">
         <f t="shared" si="0"/>
-        <v>9200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="8" t="s">
         <v>11</v>
       </c>
+      <c r="B25" s="9">
+        <f>SUM($D25:$F25)</f>
+        <v>400</v>
+      </c>
       <c r="D25" s="9">
         <f>$D23+$D24</f>
         <v>218.83875758275781</v>
@@ -1572,18 +1579,18 @@
         <f>$F23+$F24</f>
         <v>213.27259576873439</v>
       </c>
-      <c r="G25" s="22">
+      <c r="G25" s="5">
         <f t="shared" si="0"/>
-        <v>-400</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="D25:F25">
-    <cfRule type="cellIs" dxfId="7" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="9" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="8" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1601,7 +1608,7 @@
   <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:G29"/>
+      <selection activeCell="G13" sqref="G13:G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1792,8 +1799,8 @@
         <f>$B13/$E$7*$D$7</f>
         <v>1954.0016010731517</v>
       </c>
-      <c r="G13" s="23">
-        <f t="shared" ref="G13:G25" si="0">$B13-SUM($D13:$F13)</f>
+      <c r="G13" s="22">
+        <f>$B13-SUM($D13:$F13)</f>
         <v>0</v>
       </c>
     </row>
@@ -1819,8 +1826,8 @@
         <f>$B14/$E$6*$D$6</f>
         <v>942.96577946768059</v>
       </c>
-      <c r="G14" s="23">
-        <f t="shared" si="0"/>
+      <c r="G14" s="22">
+        <f t="shared" ref="G14:G25" si="0">$B14-SUM($D14:$F14)</f>
         <v>0</v>
       </c>
     </row>
@@ -1846,7 +1853,7 @@
         <f t="shared" ref="F15:F18" si="2">$B15/$E$6*$D$6</f>
         <v>94.296577946768053</v>
       </c>
-      <c r="G15" s="23">
+      <c r="G15" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1873,7 +1880,7 @@
         <f t="shared" si="2"/>
         <v>23.574144486692013</v>
       </c>
-      <c r="G16" s="23">
+      <c r="G16" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1900,7 +1907,7 @@
         <f t="shared" si="2"/>
         <v>377.18631178707221</v>
       </c>
-      <c r="G17" s="23">
+      <c r="G17" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1927,7 +1934,7 @@
         <f t="shared" si="2"/>
         <v>141.44486692015209</v>
       </c>
-      <c r="G18" s="23">
+      <c r="G18" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1954,7 +1961,7 @@
         <f>$B19/$E$8*$D$8</f>
         <v>180.24691358024694</v>
       </c>
-      <c r="G19" s="23">
+      <c r="G19" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1981,7 +1988,7 @@
         <f>$B20/$E$6*$D$6</f>
         <v>235.74144486692015</v>
       </c>
-      <c r="G20" s="23">
+      <c r="G20" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2008,7 +2015,7 @@
         <f>$B21/$E$6*$D$6</f>
         <v>47.148288973384027</v>
       </c>
-      <c r="G21" s="23">
+      <c r="G21" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2035,7 +2042,7 @@
         <f>$B22/$E$9*$D$9</f>
         <v>416.66666666666669</v>
       </c>
-      <c r="G22" s="23">
+      <c r="G22" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2061,7 +2068,7 @@
         <f t="shared" si="4"/>
         <v>4413.2725957687344</v>
       </c>
-      <c r="G23" s="23">
+      <c r="G23" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2070,6 +2077,10 @@
       <c r="A24" s="6" t="s">
         <v>10</v>
       </c>
+      <c r="B24" s="7">
+        <f>SUM($D24:$F24)</f>
+        <v>-9200</v>
+      </c>
       <c r="D24" s="7">
         <v>-2000</v>
       </c>
@@ -2079,15 +2090,19 @@
       <c r="F24" s="7">
         <v>-4200</v>
       </c>
-      <c r="G24" s="23">
+      <c r="G24" s="22">
         <f t="shared" si="0"/>
-        <v>9200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="8" t="s">
         <v>11</v>
       </c>
+      <c r="B25" s="9">
+        <f>SUM($D25:$F25)</f>
+        <v>400</v>
+      </c>
       <c r="D25" s="9">
         <f>$D23+$D24</f>
         <v>218.83875758275781</v>
@@ -2100,9 +2115,9 @@
         <f>$F23+$F24</f>
         <v>213.27259576873439</v>
       </c>
-      <c r="G25" s="23">
+      <c r="G25" s="22">
         <f t="shared" si="0"/>
-        <v>-400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
@@ -2162,18 +2177,18 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D25:F25">
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="7" priority="3" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="6" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E28:E29">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/realestate/documents/RipartizioneSpeseImmobiliari.xlsx
+++ b/realestate/documents/RipartizioneSpeseImmobiliari.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\patrick.pasquillo\Documents\GitHub\Universal\realestate\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6AEA597-3338-4514-8002-64EE4C3356AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E65F40C0-56D7-48E3-A81B-DABE40EC5810}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C8DA3664-E04A-4EE4-B0E8-18F2F24E5315}"/>
   </bookViews>
@@ -1073,7 +1073,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD82E2A4-2D0C-4E27-8A01-B72A4F39E833}">
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>

--- a/realestate/documents/RipartizioneSpeseImmobiliari.xlsx
+++ b/realestate/documents/RipartizioneSpeseImmobiliari.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\patrick.pasquillo\Documents\GitHub\Universal\realestate\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E65F40C0-56D7-48E3-A81B-DABE40EC5810}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F5CE1A3-EB53-45FF-ABDD-62FE45BA53F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C8DA3664-E04A-4EE4-B0E8-18F2F24E5315}"/>
   </bookViews>
@@ -305,7 +305,216 @@
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="35">
+  <dxfs count="45">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF7C2C1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF7C2C1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF7C2C1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF7C2C1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.00\ [$€-410]_-;\-* #,##0.00\ [$€-410]_-;_-* &quot;-&quot;??\ [$€-410]_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.00\ [$€-410]_-;\-* #,##0.00\ [$€-410]_-;_-* &quot;-&quot;??\ [$€-410]_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.00\ [$€-410]_-;\-* #,##0.00\ [$€-410]_-;_-* &quot;-&quot;??\ [$€-410]_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.00\ [$€-410]_-;\-* #,##0.00\ [$€-410]_-;_-* &quot;-&quot;??\ [$€-410]_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.00\ [$€-410]_-;\-* #,##0.00\ [$€-410]_-;_-* &quot;-&quot;??\ [$€-410]_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.00\ [$€-410]_-;\-* #,##0.00\ [$€-410]_-;_-* &quot;-&quot;??\ [$€-410]_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -327,8 +536,62 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
       <numFmt numFmtId="164" formatCode="_-* #,##0.00\ [$€-410]_-;\-* #,##0.00\ [$€-410]_-;_-* &quot;-&quot;??\ [$€-410]_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -347,81 +610,12 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="164" formatCode="_-* #,##0.00\ [$€-410]_-;\-* #,##0.00\ [$€-410]_-;_-* &quot;-&quot;??\ [$€-410]_-;_-@_-"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="_-* #,##0.00\ [$€-410]_-;\-* #,##0.00\ [$€-410]_-;_-* &quot;-&quot;??\ [$€-410]_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-* #,##0.00\ [$€-410]_-;\-* #,##0.00\ [$€-410]_-;_-* &quot;-&quot;??\ [$€-410]_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-* #,##0.00\ [$€-410]_-;\-* #,##0.00\ [$€-410]_-;_-* &quot;-&quot;??\ [$€-410]_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-* #,##0.00\ [$€-410]_-;\-* #,##0.00\ [$€-410]_-;_-* &quot;-&quot;??\ [$€-410]_-;_-@_-"/>
+      <font>
+        <b/>
+      </font>
     </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
@@ -434,10 +628,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-* #,##0.00\ [$€-410]_-;\-* #,##0.00\ [$€-410]_-;_-* &quot;-&quot;??\ [$€-410]_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -460,6 +650,14 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.00\ [$€-410]_-;\-* #,##0.00\ [$€-410]_-;_-* &quot;-&quot;??\ [$€-410]_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.00\ [$€-410]_-;\-* #,##0.00\ [$€-410]_-;_-* &quot;-&quot;??\ [$€-410]_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -477,7 +675,7 @@
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="164" formatCode="_-* #,##0.00\ [$€-410]_-;\-* #,##0.00\ [$€-410]_-;_-* &quot;-&quot;??\ [$€-410]_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -496,6 +694,7 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.00\ [$€-410]_-;\-* #,##0.00\ [$€-410]_-;_-* &quot;-&quot;??\ [$€-410]_-;_-@_-"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -529,33 +728,12 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
-        <color rgb="FF000000"/>
+        <color theme="1"/>
         <name val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-* #,##0.00\ [$€-410]_-;\-* #,##0.00\ [$€-410]_-;_-* &quot;-&quot;??\ [$€-410]_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -574,84 +752,6 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="164" formatCode="_-* #,##0.00\ [$€-410]_-;\-* #,##0.00\ [$€-410]_-;_-* &quot;-&quot;??\ [$€-410]_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-* #,##0.00\ [$€-410]_-;\-* #,##0.00\ [$€-410]_-;_-* &quot;-&quot;??\ [$€-410]_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
       <alignment horizontal="general" vertical="bottom" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -661,6 +761,11 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFF7C2C1"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -673,16 +778,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7EDFFC5C-15BA-41C1-A573-16895C48713E}" name="Tabella1" displayName="Tabella1" ref="A12:G25" totalsRowShown="0" headerRowDxfId="34" dataDxfId="33">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7EDFFC5C-15BA-41C1-A573-16895C48713E}" name="Tabella1" displayName="Tabella1" ref="A12:G25" totalsRowShown="0" headerRowDxfId="44" dataDxfId="43">
   <autoFilter ref="A12:G25" xr:uid="{7EDFFC5C-15BA-41C1-A573-16895C48713E}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{2C273954-DE9B-4C1A-906F-88F1A8DE2F4E}" name="Spesa da ripartire" dataDxfId="32"/>
-    <tableColumn id="2" xr3:uid="{BDDF30DA-1A34-4AFE-8AC9-C4A5002891E6}" name="Totale" dataDxfId="31"/>
-    <tableColumn id="10" xr3:uid="{48D01DED-AE88-46F7-B2D3-DC7AC7D698CD}" name="Tipo" dataDxfId="30"/>
-    <tableColumn id="6" xr3:uid="{CE2FA730-DC58-45E1-9E24-8CCE45FCA81E}" name="App. 1" dataDxfId="29"/>
-    <tableColumn id="7" xr3:uid="{1D501B41-CE35-4E48-95E4-C930E890E131}" name="App. 2" dataDxfId="28"/>
-    <tableColumn id="8" xr3:uid="{E0C2268A-4D14-4007-8F39-4AB92F348C25}" name="App. 3" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{687F9840-998B-484E-9F28-0E94F3AD28F1}" name="Differenze" dataDxfId="0">
+    <tableColumn id="1" xr3:uid="{2C273954-DE9B-4C1A-906F-88F1A8DE2F4E}" name="Spesa da ripartire" dataDxfId="42"/>
+    <tableColumn id="2" xr3:uid="{BDDF30DA-1A34-4AFE-8AC9-C4A5002891E6}" name="Totale" dataDxfId="41"/>
+    <tableColumn id="10" xr3:uid="{48D01DED-AE88-46F7-B2D3-DC7AC7D698CD}" name="Tipo" dataDxfId="40"/>
+    <tableColumn id="6" xr3:uid="{CE2FA730-DC58-45E1-9E24-8CCE45FCA81E}" name="App. 1" dataDxfId="39"/>
+    <tableColumn id="7" xr3:uid="{1D501B41-CE35-4E48-95E4-C930E890E131}" name="App. 2" dataDxfId="38"/>
+    <tableColumn id="8" xr3:uid="{E0C2268A-4D14-4007-8F39-4AB92F348C25}" name="App. 3" dataDxfId="37"/>
+    <tableColumn id="3" xr3:uid="{687F9840-998B-484E-9F28-0E94F3AD28F1}" name="Differenze" dataDxfId="36">
       <calculatedColumnFormula>$D13+$E13+$F13</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -695,26 +800,26 @@
   <autoFilter ref="A5:E10" xr:uid="{ED44A568-E591-4A3F-8D96-40674BA9CBE3}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{5FA9E7D7-202A-4E1B-A634-5C928F0C3DAF}" name="Tipo di ripartizione"/>
-    <tableColumn id="2" xr3:uid="{4E129D9F-4224-42E4-8173-09095C270A85}" name="App. 1" dataDxfId="27"/>
-    <tableColumn id="3" xr3:uid="{3B657F5C-AD36-496B-A58B-91D0FD74D940}" name="App. 2" dataDxfId="26"/>
-    <tableColumn id="4" xr3:uid="{D6EAECB3-C7DE-4270-B914-0A6ADB3BB4CC}" name="App. 3" dataDxfId="25"/>
-    <tableColumn id="5" xr3:uid="{7665926A-4646-456B-86BD-949B4CBD1F07}" name="Totale" dataDxfId="24"/>
+    <tableColumn id="2" xr3:uid="{4E129D9F-4224-42E4-8173-09095C270A85}" name="App. 1" dataDxfId="35"/>
+    <tableColumn id="3" xr3:uid="{3B657F5C-AD36-496B-A58B-91D0FD74D940}" name="App. 2" dataDxfId="34"/>
+    <tableColumn id="4" xr3:uid="{D6EAECB3-C7DE-4270-B914-0A6ADB3BB4CC}" name="App. 3" dataDxfId="33"/>
+    <tableColumn id="5" xr3:uid="{7665926A-4646-456B-86BD-949B4CBD1F07}" name="Totale" dataDxfId="32"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{B7A3B0EE-106B-4B90-B5E1-1AA1E2049F05}" name="Tabella16" displayName="Tabella16" ref="A12:G25" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{B7A3B0EE-106B-4B90-B5E1-1AA1E2049F05}" name="Tabella16" displayName="Tabella16" ref="A12:G25" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30">
   <autoFilter ref="A12:G25" xr:uid="{7EDFFC5C-15BA-41C1-A573-16895C48713E}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{D980C600-50FF-40F9-BA9C-D627D7865C47}" name="Spesa da ripartire" dataDxfId="21"/>
-    <tableColumn id="2" xr3:uid="{800094BF-7326-49B9-804B-F0FB019EFF2B}" name="Totale" dataDxfId="20"/>
-    <tableColumn id="10" xr3:uid="{ADAF8785-5238-4735-B68D-F636B79D2698}" name="Tipo" dataDxfId="19"/>
-    <tableColumn id="6" xr3:uid="{018A85E4-D150-48B6-9349-5E22EF00FC19}" name="App. 1" dataDxfId="18"/>
-    <tableColumn id="7" xr3:uid="{23A79678-9C2C-4CB8-9AF7-874990569583}" name="App. 2" dataDxfId="17"/>
-    <tableColumn id="8" xr3:uid="{6D2AAAD5-E835-4FC4-9E3F-E269F9616D9C}" name="App. 3" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{2C370E16-C2F9-4889-B618-1E8D4B554027}" name="Differenze" dataDxfId="2">
+    <tableColumn id="1" xr3:uid="{D980C600-50FF-40F9-BA9C-D627D7865C47}" name="Spesa da ripartire" dataDxfId="29"/>
+    <tableColumn id="2" xr3:uid="{800094BF-7326-49B9-804B-F0FB019EFF2B}" name="Totale" dataDxfId="28"/>
+    <tableColumn id="10" xr3:uid="{ADAF8785-5238-4735-B68D-F636B79D2698}" name="Tipo" dataDxfId="27"/>
+    <tableColumn id="6" xr3:uid="{018A85E4-D150-48B6-9349-5E22EF00FC19}" name="App. 1" dataDxfId="26"/>
+    <tableColumn id="7" xr3:uid="{23A79678-9C2C-4CB8-9AF7-874990569583}" name="App. 2" dataDxfId="25"/>
+    <tableColumn id="8" xr3:uid="{6D2AAAD5-E835-4FC4-9E3F-E269F9616D9C}" name="App. 3" dataDxfId="24"/>
+    <tableColumn id="3" xr3:uid="{2C370E16-C2F9-4889-B618-1E8D4B554027}" name="Differenze" dataDxfId="23">
       <calculatedColumnFormula>$B13-SUM($D13:$F13)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -727,10 +832,10 @@
   <autoFilter ref="A5:E10" xr:uid="{ED44A568-E591-4A3F-8D96-40674BA9CBE3}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{8F561E8B-0447-4EB2-AC66-B959F54EBCE2}" name="Tipo di ripartizione"/>
-    <tableColumn id="2" xr3:uid="{A0E5C9C8-BBDB-4BF4-AB4E-F52AC1849A5A}" name="App. 1" dataDxfId="16"/>
-    <tableColumn id="3" xr3:uid="{78B3AF80-8C2C-4447-8414-98145F740A7A}" name="App. 2" dataDxfId="15"/>
-    <tableColumn id="4" xr3:uid="{35612B7F-D41C-4095-B625-48DB7F64DC91}" name="App. 3" dataDxfId="14"/>
-    <tableColumn id="5" xr3:uid="{FF9F06AC-F1DC-41CF-92A3-0CFFF00AC785}" name="Totale" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{A0E5C9C8-BBDB-4BF4-AB4E-F52AC1849A5A}" name="App. 1" dataDxfId="22"/>
+    <tableColumn id="3" xr3:uid="{78B3AF80-8C2C-4447-8414-98145F740A7A}" name="App. 2" dataDxfId="21"/>
+    <tableColumn id="4" xr3:uid="{35612B7F-D41C-4095-B625-48DB7F64DC91}" name="App. 3" dataDxfId="20"/>
+    <tableColumn id="5" xr3:uid="{FF9F06AC-F1DC-41CF-92A3-0CFFF00AC785}" name="Totale" dataDxfId="19"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -742,11 +847,11 @@
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{069F6DA9-4A71-4C57-8936-857FEA86101B}" name="Calcolo prorata"/>
     <tableColumn id="2" xr3:uid="{253E7923-15EA-4A25-9E0B-638EE573F3C5}" name="Mesi"/>
-    <tableColumn id="3" xr3:uid="{E3B9E5FA-5EB4-44B2-A828-0829F24A0EDC}" name="App. 3" dataDxfId="12">
+    <tableColumn id="3" xr3:uid="{E3B9E5FA-5EB4-44B2-A828-0829F24A0EDC}" name="App. 3" dataDxfId="18">
       <calculatedColumnFormula>$F$23/12*2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{93F33975-3E35-400B-92D7-133D1D932083}" name="Acconto" dataDxfId="11"/>
-    <tableColumn id="5" xr3:uid="{AE0B9D65-B077-40B5-A771-D68274EB1147}" name="Conguaglio" dataDxfId="10">
+    <tableColumn id="4" xr3:uid="{93F33975-3E35-400B-92D7-133D1D932083}" name="Acconto" dataDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{AE0B9D65-B077-40B5-A771-D68274EB1147}" name="Conguaglio" dataDxfId="16">
       <calculatedColumnFormula>$C28+$D28</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1589,10 +1694,10 @@
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="D25:F25">
-    <cfRule type="cellIs" dxfId="9" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="15" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="14" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1609,9 +1714,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B029749-BA36-4C12-8B1C-4D1814EDCC2E}">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13:G25"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2178,19 +2281,19 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D25:F25">
-    <cfRule type="cellIs" dxfId="7" priority="3" operator="lessThan">
+  <conditionalFormatting sqref="E28:E29">
+    <cfRule type="cellIs" dxfId="8" priority="3" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="11" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E28:E29">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="lessThan">
+  <conditionalFormatting sqref="D25:F25">
+    <cfRule type="cellIs" dxfId="10" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="9" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/realestate/documents/RipartizioneSpeseImmobiliari.xlsx
+++ b/realestate/documents/RipartizioneSpeseImmobiliari.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\patrick.pasquillo\Documents\GitHub\Universal\realestate\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F5CE1A3-EB53-45FF-ABDD-62FE45BA53F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A25F594-7C68-4769-AED5-1662F197D21F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C8DA3664-E04A-4EE4-B0E8-18F2F24E5315}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{C8DA3664-E04A-4EE4-B0E8-18F2F24E5315}"/>
   </bookViews>
   <sheets>
     <sheet name="Conguagli spese" sheetId="1" r:id="rId1"/>
@@ -305,7 +305,27 @@
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="45">
+  <dxfs count="35">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -323,126 +343,6 @@
       <fill>
         <patternFill>
           <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF7C2C1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF7C2C1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
         </patternFill>
       </fill>
     </dxf>
@@ -778,16 +678,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7EDFFC5C-15BA-41C1-A573-16895C48713E}" name="Tabella1" displayName="Tabella1" ref="A12:G25" totalsRowShown="0" headerRowDxfId="44" dataDxfId="43">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7EDFFC5C-15BA-41C1-A573-16895C48713E}" name="Tabella1" displayName="Tabella1" ref="A12:G25" totalsRowShown="0" headerRowDxfId="34" dataDxfId="33">
   <autoFilter ref="A12:G25" xr:uid="{7EDFFC5C-15BA-41C1-A573-16895C48713E}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{2C273954-DE9B-4C1A-906F-88F1A8DE2F4E}" name="Spesa da ripartire" dataDxfId="42"/>
-    <tableColumn id="2" xr3:uid="{BDDF30DA-1A34-4AFE-8AC9-C4A5002891E6}" name="Totale" dataDxfId="41"/>
-    <tableColumn id="10" xr3:uid="{48D01DED-AE88-46F7-B2D3-DC7AC7D698CD}" name="Tipo" dataDxfId="40"/>
-    <tableColumn id="6" xr3:uid="{CE2FA730-DC58-45E1-9E24-8CCE45FCA81E}" name="App. 1" dataDxfId="39"/>
-    <tableColumn id="7" xr3:uid="{1D501B41-CE35-4E48-95E4-C930E890E131}" name="App. 2" dataDxfId="38"/>
-    <tableColumn id="8" xr3:uid="{E0C2268A-4D14-4007-8F39-4AB92F348C25}" name="App. 3" dataDxfId="37"/>
-    <tableColumn id="3" xr3:uid="{687F9840-998B-484E-9F28-0E94F3AD28F1}" name="Differenze" dataDxfId="36">
+    <tableColumn id="1" xr3:uid="{2C273954-DE9B-4C1A-906F-88F1A8DE2F4E}" name="Spesa da ripartire" dataDxfId="32"/>
+    <tableColumn id="2" xr3:uid="{BDDF30DA-1A34-4AFE-8AC9-C4A5002891E6}" name="Totale" dataDxfId="31"/>
+    <tableColumn id="10" xr3:uid="{48D01DED-AE88-46F7-B2D3-DC7AC7D698CD}" name="Tipo" dataDxfId="30"/>
+    <tableColumn id="6" xr3:uid="{CE2FA730-DC58-45E1-9E24-8CCE45FCA81E}" name="App. 1" dataDxfId="29"/>
+    <tableColumn id="7" xr3:uid="{1D501B41-CE35-4E48-95E4-C930E890E131}" name="App. 2" dataDxfId="28"/>
+    <tableColumn id="8" xr3:uid="{E0C2268A-4D14-4007-8F39-4AB92F348C25}" name="App. 3" dataDxfId="27"/>
+    <tableColumn id="3" xr3:uid="{687F9840-998B-484E-9F28-0E94F3AD28F1}" name="Differenze" dataDxfId="26">
       <calculatedColumnFormula>$D13+$E13+$F13</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -800,26 +700,26 @@
   <autoFilter ref="A5:E10" xr:uid="{ED44A568-E591-4A3F-8D96-40674BA9CBE3}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{5FA9E7D7-202A-4E1B-A634-5C928F0C3DAF}" name="Tipo di ripartizione"/>
-    <tableColumn id="2" xr3:uid="{4E129D9F-4224-42E4-8173-09095C270A85}" name="App. 1" dataDxfId="35"/>
-    <tableColumn id="3" xr3:uid="{3B657F5C-AD36-496B-A58B-91D0FD74D940}" name="App. 2" dataDxfId="34"/>
-    <tableColumn id="4" xr3:uid="{D6EAECB3-C7DE-4270-B914-0A6ADB3BB4CC}" name="App. 3" dataDxfId="33"/>
-    <tableColumn id="5" xr3:uid="{7665926A-4646-456B-86BD-949B4CBD1F07}" name="Totale" dataDxfId="32"/>
+    <tableColumn id="2" xr3:uid="{4E129D9F-4224-42E4-8173-09095C270A85}" name="App. 1" dataDxfId="25"/>
+    <tableColumn id="3" xr3:uid="{3B657F5C-AD36-496B-A58B-91D0FD74D940}" name="App. 2" dataDxfId="24"/>
+    <tableColumn id="4" xr3:uid="{D6EAECB3-C7DE-4270-B914-0A6ADB3BB4CC}" name="App. 3" dataDxfId="23"/>
+    <tableColumn id="5" xr3:uid="{7665926A-4646-456B-86BD-949B4CBD1F07}" name="Totale" dataDxfId="22"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{B7A3B0EE-106B-4B90-B5E1-1AA1E2049F05}" name="Tabella16" displayName="Tabella16" ref="A12:G25" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{B7A3B0EE-106B-4B90-B5E1-1AA1E2049F05}" name="Tabella16" displayName="Tabella16" ref="A12:G25" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
   <autoFilter ref="A12:G25" xr:uid="{7EDFFC5C-15BA-41C1-A573-16895C48713E}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{D980C600-50FF-40F9-BA9C-D627D7865C47}" name="Spesa da ripartire" dataDxfId="29"/>
-    <tableColumn id="2" xr3:uid="{800094BF-7326-49B9-804B-F0FB019EFF2B}" name="Totale" dataDxfId="28"/>
-    <tableColumn id="10" xr3:uid="{ADAF8785-5238-4735-B68D-F636B79D2698}" name="Tipo" dataDxfId="27"/>
-    <tableColumn id="6" xr3:uid="{018A85E4-D150-48B6-9349-5E22EF00FC19}" name="App. 1" dataDxfId="26"/>
-    <tableColumn id="7" xr3:uid="{23A79678-9C2C-4CB8-9AF7-874990569583}" name="App. 2" dataDxfId="25"/>
-    <tableColumn id="8" xr3:uid="{6D2AAAD5-E835-4FC4-9E3F-E269F9616D9C}" name="App. 3" dataDxfId="24"/>
-    <tableColumn id="3" xr3:uid="{2C370E16-C2F9-4889-B618-1E8D4B554027}" name="Differenze" dataDxfId="23">
+    <tableColumn id="1" xr3:uid="{D980C600-50FF-40F9-BA9C-D627D7865C47}" name="Spesa da ripartire" dataDxfId="19"/>
+    <tableColumn id="2" xr3:uid="{800094BF-7326-49B9-804B-F0FB019EFF2B}" name="Totale" dataDxfId="18"/>
+    <tableColumn id="10" xr3:uid="{ADAF8785-5238-4735-B68D-F636B79D2698}" name="Tipo" dataDxfId="17"/>
+    <tableColumn id="6" xr3:uid="{018A85E4-D150-48B6-9349-5E22EF00FC19}" name="App. 1" dataDxfId="16"/>
+    <tableColumn id="7" xr3:uid="{23A79678-9C2C-4CB8-9AF7-874990569583}" name="App. 2" dataDxfId="15"/>
+    <tableColumn id="8" xr3:uid="{6D2AAAD5-E835-4FC4-9E3F-E269F9616D9C}" name="App. 3" dataDxfId="14"/>
+    <tableColumn id="3" xr3:uid="{2C370E16-C2F9-4889-B618-1E8D4B554027}" name="Differenze" dataDxfId="13">
       <calculatedColumnFormula>$B13-SUM($D13:$F13)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -832,10 +732,10 @@
   <autoFilter ref="A5:E10" xr:uid="{ED44A568-E591-4A3F-8D96-40674BA9CBE3}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{8F561E8B-0447-4EB2-AC66-B959F54EBCE2}" name="Tipo di ripartizione"/>
-    <tableColumn id="2" xr3:uid="{A0E5C9C8-BBDB-4BF4-AB4E-F52AC1849A5A}" name="App. 1" dataDxfId="22"/>
-    <tableColumn id="3" xr3:uid="{78B3AF80-8C2C-4447-8414-98145F740A7A}" name="App. 2" dataDxfId="21"/>
-    <tableColumn id="4" xr3:uid="{35612B7F-D41C-4095-B625-48DB7F64DC91}" name="App. 3" dataDxfId="20"/>
-    <tableColumn id="5" xr3:uid="{FF9F06AC-F1DC-41CF-92A3-0CFFF00AC785}" name="Totale" dataDxfId="19"/>
+    <tableColumn id="2" xr3:uid="{A0E5C9C8-BBDB-4BF4-AB4E-F52AC1849A5A}" name="App. 1" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{78B3AF80-8C2C-4447-8414-98145F740A7A}" name="App. 2" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{35612B7F-D41C-4095-B625-48DB7F64DC91}" name="App. 3" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{FF9F06AC-F1DC-41CF-92A3-0CFFF00AC785}" name="Totale" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -847,11 +747,11 @@
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{069F6DA9-4A71-4C57-8936-857FEA86101B}" name="Calcolo prorata"/>
     <tableColumn id="2" xr3:uid="{253E7923-15EA-4A25-9E0B-638EE573F3C5}" name="Mesi"/>
-    <tableColumn id="3" xr3:uid="{E3B9E5FA-5EB4-44B2-A828-0829F24A0EDC}" name="App. 3" dataDxfId="18">
+    <tableColumn id="3" xr3:uid="{E3B9E5FA-5EB4-44B2-A828-0829F24A0EDC}" name="App. 3" dataDxfId="8">
       <calculatedColumnFormula>$F$23/12*2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{93F33975-3E35-400B-92D7-133D1D932083}" name="Acconto" dataDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{AE0B9D65-B077-40B5-A771-D68274EB1147}" name="Conguaglio" dataDxfId="16">
+    <tableColumn id="4" xr3:uid="{93F33975-3E35-400B-92D7-133D1D932083}" name="Acconto" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{AE0B9D65-B077-40B5-A771-D68274EB1147}" name="Conguaglio" dataDxfId="6">
       <calculatedColumnFormula>$C28+$D28</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1178,9 +1078,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD82E2A4-2D0C-4E27-8A01-B72A4F39E833}">
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1694,15 +1592,19 @@
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="D25:F25">
-    <cfRule type="cellIs" dxfId="15" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="4" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="G13:G25" calculatedColumn="1"/>
+    <ignoredError sqref="D19:F19" formula="1"/>
+  </ignoredErrors>
   <tableParts count="2">
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
@@ -1714,7 +1616,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B029749-BA36-4C12-8B1C-4D1814EDCC2E}">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2281,24 +2183,27 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="E28:E29">
-    <cfRule type="cellIs" dxfId="8" priority="3" operator="lessThan">
+  <conditionalFormatting sqref="D25:F25">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D25:F25">
-    <cfRule type="cellIs" dxfId="10" priority="1" operator="lessThan">
+  <conditionalFormatting sqref="E28:E29">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="D19:F19" formula="1"/>
+  </ignoredErrors>
   <tableParts count="3">
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
